--- a/Data/peptides_transformados.xlsx
+++ b/Data/peptides_transformados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielcondetorres/Desktop/K_MEANS_CUANTICO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE593FD-0294-4448-8771-DC016F24F7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE303D43-9251-4E4B-947F-A90897EFC3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8180" yWindow="2580" windowWidth="34560" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>DRAMP00008</t>
   </si>
@@ -712,169 +712,40 @@
     <t>num_cation bacteria</t>
   </si>
   <si>
-    <t>Antimicrobial gram-positive bacteria</t>
-  </si>
-  <si>
-    <t>Antimicrobial cancer</t>
-  </si>
-  <si>
-    <t>Antimicrobial gram-negative bacteria</t>
-  </si>
-  <si>
-    <t>Antimicrobial healthy mammal</t>
-  </si>
-  <si>
-    <t>Antimicrobial bacteria</t>
-  </si>
-  <si>
-    <t>Anti-cancer gram-positive bacteria</t>
-  </si>
-  <si>
-    <t>Anti-cancer cancer</t>
-  </si>
-  <si>
-    <t>Anti-cancer gram-negative bacteria</t>
-  </si>
-  <si>
-    <t>Anti-cancer healthy mammal</t>
-  </si>
-  <si>
-    <t>Anti-cancer bacteria</t>
-  </si>
-  <si>
-    <t>Anti-Gram+ gram-positive bacteria</t>
-  </si>
-  <si>
-    <t>Anti-Gram+ cancer</t>
-  </si>
-  <si>
-    <t>Anti-Gram+ gram-negative bacteria</t>
-  </si>
-  <si>
-    <t>Anti-Gram+ healthy mammal</t>
-  </si>
-  <si>
-    <t>Anti-Gram+ bacteria</t>
-  </si>
-  <si>
     <t>None gram-positive bacteria</t>
   </si>
   <si>
-    <t>None cancer</t>
-  </si>
-  <si>
-    <t>None gram-negative bacteria</t>
-  </si>
-  <si>
-    <t>None healthy mammal</t>
-  </si>
-  <si>
-    <t>None bacteria</t>
-  </si>
-  <si>
-    <t>Anti-Gram- gram-positive bacteria</t>
-  </si>
-  <si>
-    <t>Anti-Gram- cancer</t>
-  </si>
-  <si>
-    <t>Anti-Gram- gram-negative bacteria</t>
-  </si>
-  <si>
-    <t>Anti-Gram- healthy mammal</t>
-  </si>
-  <si>
-    <t>Anti-Gram- bacteria</t>
-  </si>
-  <si>
-    <t>Antiviral gram-positive bacteria</t>
-  </si>
-  <si>
-    <t>Antiviral cancer</t>
-  </si>
-  <si>
-    <t>Antiviral gram-negative bacteria</t>
-  </si>
-  <si>
-    <t>Antiviral healthy mammal</t>
-  </si>
-  <si>
-    <t>Antiviral bacteria</t>
-  </si>
-  <si>
     <t>Antibacterial</t>
   </si>
   <si>
-    <t>Antibacterial cancer</t>
-  </si>
-  <si>
-    <t>Antibacterial gram-negative bacteria</t>
-  </si>
-  <si>
-    <t>Antibacterial healthy mammal</t>
-  </si>
-  <si>
-    <t>Antibacterial bacteria</t>
-  </si>
-  <si>
-    <t>Antifungal gram-positive bacteria</t>
-  </si>
-  <si>
-    <t>Antifungal cancer</t>
-  </si>
-  <si>
-    <t>Antifungal gram-negative bacteria</t>
-  </si>
-  <si>
-    <t>Antifungal healthy mammal</t>
-  </si>
-  <si>
-    <t>Antifungal bacteria</t>
-  </si>
-  <si>
-    <t>Antitumor gram-positive bacteria</t>
-  </si>
-  <si>
-    <t>Antitumor cancer</t>
-  </si>
-  <si>
-    <t>Antitumor gram-negative bacteria</t>
-  </si>
-  <si>
-    <t>Antitumor healthy mammal</t>
-  </si>
-  <si>
-    <t>Antitumor bacteria</t>
-  </si>
-  <si>
-    <t>Antiprotozoal gram-positive bacteria</t>
-  </si>
-  <si>
-    <t>Antiprotozoal cancer</t>
-  </si>
-  <si>
-    <t>Antiprotozoal gram-negative bacteria</t>
-  </si>
-  <si>
-    <t>Antiprotozoal healthy mammal</t>
-  </si>
-  <si>
-    <t>Antiprotozoal bacteria</t>
-  </si>
-  <si>
-    <t>Hemolytic gram-positive bacteria</t>
-  </si>
-  <si>
-    <t>Hemolytic cancer</t>
-  </si>
-  <si>
-    <t>Hemolytic gram-negative bacteria</t>
-  </si>
-  <si>
-    <t>Hemolytic healthy mammal</t>
-  </si>
-  <si>
-    <t>Hemolytic bacteria</t>
+    <t>Antimicrobial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-cancer </t>
+  </si>
+  <si>
+    <t>Anti-Gram+</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Anti-Gram-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiviral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antifungal </t>
+  </si>
+  <si>
+    <t>Antitumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiprotozoal </t>
+  </si>
+  <si>
+    <t>Hemolytic</t>
   </si>
 </sst>
 </file>
@@ -904,7 +775,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -927,13 +798,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1238,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB180"/>
+  <dimension ref="A1:BB138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21749,7 +21634,7 @@
     </row>
     <row r="126" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -21913,43 +21798,43 @@
     </row>
     <row r="127" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -21961,88 +21846,88 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS127">
         <v>0</v>
@@ -22077,7 +21962,7 @@
     </row>
     <row r="128" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -22086,19 +21971,19 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
         <v>1</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -22146,7 +22031,7 @@
         <v>1</v>
       </c>
       <c r="X128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y128">
         <v>1</v>
@@ -22182,10 +22067,10 @@
         <v>1</v>
       </c>
       <c r="AJ128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL128">
         <v>1</v>
@@ -22241,335 +22126,335 @@
     </row>
     <row r="129" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -22593,85 +22478,85 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131">
         <v>1</v>
       </c>
       <c r="O131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X131">
         <v>0</v>
       </c>
       <c r="Y131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z131">
         <v>0</v>
       </c>
       <c r="AA131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE131">
         <v>0</v>
       </c>
       <c r="AF131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ131">
         <v>0</v>
@@ -22680,25 +22565,25 @@
         <v>0</v>
       </c>
       <c r="AL131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS131">
         <v>0</v>
@@ -22733,7 +22618,7 @@
     </row>
     <row r="132" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -22769,16 +22654,16 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132">
         <v>0</v>
@@ -22897,43 +22782,43 @@
     </row>
     <row r="133" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -22945,88 +22830,88 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS133">
         <v>0</v>
@@ -23082,37 +22967,37 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134">
         <v>0</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
         <v>0</v>
       </c>
       <c r="R134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -23124,28 +23009,28 @@
         <v>0</v>
       </c>
       <c r="V134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X134">
         <v>0</v>
       </c>
       <c r="Y134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB134">
         <v>0</v>
       </c>
       <c r="AC134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD134">
         <v>0</v>
@@ -23154,10 +23039,10 @@
         <v>0</v>
       </c>
       <c r="AF134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH134">
         <v>0</v>
@@ -23172,10 +23057,10 @@
         <v>0</v>
       </c>
       <c r="AL134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN134">
         <v>0</v>
@@ -23184,7 +23069,7 @@
         <v>0</v>
       </c>
       <c r="AP134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
         <v>0</v>
@@ -23264,13 +23149,13 @@
         <v>0</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -23345,7 +23230,7 @@
         <v>0</v>
       </c>
       <c r="AO135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP135">
         <v>0</v>
@@ -23392,10 +23277,10 @@
         <v>240</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -23404,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -23416,82 +23301,82 @@
         <v>1</v>
       </c>
       <c r="J136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q136">
         <v>1</v>
       </c>
       <c r="R136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X136">
         <v>0</v>
       </c>
       <c r="Y136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ136">
         <v>0</v>
@@ -23500,25 +23385,25 @@
         <v>0</v>
       </c>
       <c r="AL136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS136">
         <v>0</v>
@@ -23556,10 +23441,10 @@
         <v>241</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -23568,7 +23453,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -23577,82 +23462,82 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X137">
         <v>0</v>
       </c>
       <c r="Y137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI137">
         <v>1</v>
@@ -23664,25 +23549,25 @@
         <v>0</v>
       </c>
       <c r="AL137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS137">
         <v>0</v>
@@ -23716,7056 +23601,7 @@
       </c>
     </row>
     <row r="138" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="J138">
-        <v>1</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-      <c r="M138">
-        <v>1</v>
-      </c>
-      <c r="N138">
-        <v>1</v>
-      </c>
-      <c r="O138">
-        <v>1</v>
-      </c>
-      <c r="P138">
-        <v>1</v>
-      </c>
-      <c r="Q138">
-        <v>1</v>
-      </c>
-      <c r="R138">
-        <v>1</v>
-      </c>
-      <c r="S138">
-        <v>1</v>
-      </c>
-      <c r="T138">
-        <v>1</v>
-      </c>
-      <c r="U138">
-        <v>1</v>
-      </c>
-      <c r="V138">
-        <v>1</v>
-      </c>
-      <c r="W138">
-        <v>1</v>
-      </c>
-      <c r="X138">
-        <v>0</v>
-      </c>
-      <c r="Y138">
-        <v>1</v>
-      </c>
-      <c r="Z138">
-        <v>1</v>
-      </c>
-      <c r="AA138">
-        <v>1</v>
-      </c>
-      <c r="AB138">
-        <v>1</v>
-      </c>
-      <c r="AC138">
-        <v>1</v>
-      </c>
-      <c r="AD138">
-        <v>1</v>
-      </c>
-      <c r="AE138">
-        <v>1</v>
-      </c>
-      <c r="AF138">
-        <v>1</v>
-      </c>
-      <c r="AG138">
-        <v>1</v>
-      </c>
-      <c r="AH138">
-        <v>1</v>
-      </c>
-      <c r="AI138">
-        <v>1</v>
-      </c>
-      <c r="AJ138">
-        <v>0</v>
-      </c>
-      <c r="AK138">
-        <v>0</v>
-      </c>
-      <c r="AL138">
-        <v>1</v>
-      </c>
-      <c r="AM138">
-        <v>1</v>
-      </c>
-      <c r="AN138">
-        <v>1</v>
-      </c>
-      <c r="AO138">
-        <v>1</v>
-      </c>
-      <c r="AP138">
-        <v>1</v>
-      </c>
-      <c r="AQ138">
-        <v>1</v>
-      </c>
-      <c r="AR138">
-        <v>1</v>
-      </c>
-      <c r="AS138">
-        <v>0</v>
-      </c>
-      <c r="AT138">
-        <v>0</v>
-      </c>
-      <c r="AU138">
-        <v>0</v>
-      </c>
-      <c r="AV138">
-        <v>0</v>
-      </c>
-      <c r="AW138">
-        <v>0</v>
-      </c>
-      <c r="AX138">
-        <v>0</v>
-      </c>
-      <c r="AY138">
-        <v>0</v>
-      </c>
-      <c r="AZ138">
-        <v>0</v>
-      </c>
-      <c r="BA138">
-        <v>0</v>
-      </c>
-      <c r="BB138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="J139">
-        <v>1</v>
-      </c>
-      <c r="K139">
-        <v>1</v>
-      </c>
-      <c r="L139">
-        <v>1</v>
-      </c>
-      <c r="M139">
-        <v>1</v>
-      </c>
-      <c r="N139">
-        <v>1</v>
-      </c>
-      <c r="O139">
-        <v>1</v>
-      </c>
-      <c r="P139">
-        <v>1</v>
-      </c>
-      <c r="Q139">
-        <v>1</v>
-      </c>
-      <c r="R139">
-        <v>1</v>
-      </c>
-      <c r="S139">
-        <v>1</v>
-      </c>
-      <c r="T139">
-        <v>1</v>
-      </c>
-      <c r="U139">
-        <v>1</v>
-      </c>
-      <c r="V139">
-        <v>1</v>
-      </c>
-      <c r="W139">
-        <v>1</v>
-      </c>
-      <c r="X139">
-        <v>0</v>
-      </c>
-      <c r="Y139">
-        <v>1</v>
-      </c>
-      <c r="Z139">
-        <v>1</v>
-      </c>
-      <c r="AA139">
-        <v>1</v>
-      </c>
-      <c r="AB139">
-        <v>1</v>
-      </c>
-      <c r="AC139">
-        <v>1</v>
-      </c>
-      <c r="AD139">
-        <v>1</v>
-      </c>
-      <c r="AE139">
-        <v>1</v>
-      </c>
-      <c r="AF139">
-        <v>1</v>
-      </c>
-      <c r="AG139">
-        <v>1</v>
-      </c>
-      <c r="AH139">
-        <v>1</v>
-      </c>
-      <c r="AI139">
-        <v>1</v>
-      </c>
-      <c r="AJ139">
-        <v>0</v>
-      </c>
-      <c r="AK139">
-        <v>0</v>
-      </c>
-      <c r="AL139">
-        <v>1</v>
-      </c>
-      <c r="AM139">
-        <v>1</v>
-      </c>
-      <c r="AN139">
-        <v>1</v>
-      </c>
-      <c r="AO139">
-        <v>1</v>
-      </c>
-      <c r="AP139">
-        <v>1</v>
-      </c>
-      <c r="AQ139">
-        <v>1</v>
-      </c>
-      <c r="AR139">
-        <v>1</v>
-      </c>
-      <c r="AS139">
-        <v>0</v>
-      </c>
-      <c r="AT139">
-        <v>0</v>
-      </c>
-      <c r="AU139">
-        <v>0</v>
-      </c>
-      <c r="AV139">
-        <v>0</v>
-      </c>
-      <c r="AW139">
-        <v>0</v>
-      </c>
-      <c r="AX139">
-        <v>0</v>
-      </c>
-      <c r="AY139">
-        <v>0</v>
-      </c>
-      <c r="AZ139">
-        <v>0</v>
-      </c>
-      <c r="BA139">
-        <v>0</v>
-      </c>
-      <c r="BB139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
-      <c r="J140">
-        <v>1</v>
-      </c>
-      <c r="K140">
-        <v>1</v>
-      </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
-      <c r="M140">
-        <v>1</v>
-      </c>
-      <c r="N140">
-        <v>1</v>
-      </c>
-      <c r="O140">
-        <v>1</v>
-      </c>
-      <c r="P140">
-        <v>1</v>
-      </c>
-      <c r="Q140">
-        <v>1</v>
-      </c>
-      <c r="R140">
-        <v>1</v>
-      </c>
-      <c r="S140">
-        <v>1</v>
-      </c>
-      <c r="T140">
-        <v>1</v>
-      </c>
-      <c r="U140">
-        <v>1</v>
-      </c>
-      <c r="V140">
-        <v>1</v>
-      </c>
-      <c r="W140">
-        <v>1</v>
-      </c>
-      <c r="X140">
-        <v>0</v>
-      </c>
-      <c r="Y140">
-        <v>1</v>
-      </c>
-      <c r="Z140">
-        <v>1</v>
-      </c>
-      <c r="AA140">
-        <v>1</v>
-      </c>
-      <c r="AB140">
-        <v>1</v>
-      </c>
-      <c r="AC140">
-        <v>1</v>
-      </c>
-      <c r="AD140">
-        <v>1</v>
-      </c>
-      <c r="AE140">
-        <v>1</v>
-      </c>
-      <c r="AF140">
-        <v>1</v>
-      </c>
-      <c r="AG140">
-        <v>1</v>
-      </c>
-      <c r="AH140">
-        <v>1</v>
-      </c>
-      <c r="AI140">
-        <v>1</v>
-      </c>
-      <c r="AJ140">
-        <v>0</v>
-      </c>
-      <c r="AK140">
-        <v>0</v>
-      </c>
-      <c r="AL140">
-        <v>1</v>
-      </c>
-      <c r="AM140">
-        <v>1</v>
-      </c>
-      <c r="AN140">
-        <v>1</v>
-      </c>
-      <c r="AO140">
-        <v>1</v>
-      </c>
-      <c r="AP140">
-        <v>1</v>
-      </c>
-      <c r="AQ140">
-        <v>1</v>
-      </c>
-      <c r="AR140">
-        <v>1</v>
-      </c>
-      <c r="AS140">
-        <v>0</v>
-      </c>
-      <c r="AT140">
-        <v>0</v>
-      </c>
-      <c r="AU140">
-        <v>0</v>
-      </c>
-      <c r="AV140">
-        <v>0</v>
-      </c>
-      <c r="AW140">
-        <v>0</v>
-      </c>
-      <c r="AX140">
-        <v>0</v>
-      </c>
-      <c r="AY140">
-        <v>0</v>
-      </c>
-      <c r="AZ140">
-        <v>0</v>
-      </c>
-      <c r="BA140">
-        <v>0</v>
-      </c>
-      <c r="BB140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="M141">
-        <v>0</v>
-      </c>
-      <c r="N141">
-        <v>0</v>
-      </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-      <c r="P141">
-        <v>0</v>
-      </c>
-      <c r="Q141">
-        <v>0</v>
-      </c>
-      <c r="R141">
-        <v>0</v>
-      </c>
-      <c r="S141">
-        <v>0</v>
-      </c>
-      <c r="T141">
-        <v>0</v>
-      </c>
-      <c r="U141">
-        <v>0</v>
-      </c>
-      <c r="V141">
-        <v>0</v>
-      </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-      <c r="X141">
-        <v>0</v>
-      </c>
-      <c r="Y141">
-        <v>0</v>
-      </c>
-      <c r="Z141">
-        <v>0</v>
-      </c>
-      <c r="AA141">
-        <v>0</v>
-      </c>
-      <c r="AB141">
-        <v>0</v>
-      </c>
-      <c r="AC141">
-        <v>0</v>
-      </c>
-      <c r="AD141">
-        <v>0</v>
-      </c>
-      <c r="AE141">
-        <v>0</v>
-      </c>
-      <c r="AF141">
-        <v>0</v>
-      </c>
-      <c r="AG141">
-        <v>0</v>
-      </c>
-      <c r="AH141">
-        <v>0</v>
-      </c>
-      <c r="AI141">
-        <v>0</v>
-      </c>
-      <c r="AJ141">
-        <v>0</v>
-      </c>
-      <c r="AK141">
-        <v>0</v>
-      </c>
-      <c r="AL141">
-        <v>0</v>
-      </c>
-      <c r="AM141">
-        <v>0</v>
-      </c>
-      <c r="AN141">
-        <v>0</v>
-      </c>
-      <c r="AO141">
-        <v>0</v>
-      </c>
-      <c r="AP141">
-        <v>0</v>
-      </c>
-      <c r="AQ141">
-        <v>0</v>
-      </c>
-      <c r="AR141">
-        <v>0</v>
-      </c>
-      <c r="AS141">
-        <v>1</v>
-      </c>
-      <c r="AT141">
-        <v>1</v>
-      </c>
-      <c r="AU141">
-        <v>1</v>
-      </c>
-      <c r="AV141">
-        <v>1</v>
-      </c>
-      <c r="AW141">
-        <v>1</v>
-      </c>
-      <c r="AX141">
-        <v>1</v>
-      </c>
-      <c r="AY141">
-        <v>1</v>
-      </c>
-      <c r="AZ141">
-        <v>1</v>
-      </c>
-      <c r="BA141">
-        <v>1</v>
-      </c>
-      <c r="BB141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142">
-        <v>0</v>
-      </c>
-      <c r="N142">
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142">
-        <v>0</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142">
-        <v>0</v>
-      </c>
-      <c r="S142">
-        <v>0</v>
-      </c>
-      <c r="T142">
-        <v>0</v>
-      </c>
-      <c r="U142">
-        <v>0</v>
-      </c>
-      <c r="V142">
-        <v>0</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-      <c r="Z142">
-        <v>0</v>
-      </c>
-      <c r="AA142">
-        <v>0</v>
-      </c>
-      <c r="AB142">
-        <v>0</v>
-      </c>
-      <c r="AC142">
-        <v>0</v>
-      </c>
-      <c r="AD142">
-        <v>0</v>
-      </c>
-      <c r="AE142">
-        <v>0</v>
-      </c>
-      <c r="AF142">
-        <v>0</v>
-      </c>
-      <c r="AG142">
-        <v>0</v>
-      </c>
-      <c r="AH142">
-        <v>0</v>
-      </c>
-      <c r="AI142">
-        <v>0</v>
-      </c>
-      <c r="AJ142">
-        <v>0</v>
-      </c>
-      <c r="AK142">
-        <v>0</v>
-      </c>
-      <c r="AL142">
-        <v>0</v>
-      </c>
-      <c r="AM142">
-        <v>0</v>
-      </c>
-      <c r="AN142">
-        <v>0</v>
-      </c>
-      <c r="AO142">
-        <v>0</v>
-      </c>
-      <c r="AP142">
-        <v>0</v>
-      </c>
-      <c r="AQ142">
-        <v>0</v>
-      </c>
-      <c r="AR142">
-        <v>0</v>
-      </c>
-      <c r="AS142">
-        <v>1</v>
-      </c>
-      <c r="AT142">
-        <v>1</v>
-      </c>
-      <c r="AU142">
-        <v>1</v>
-      </c>
-      <c r="AV142">
-        <v>1</v>
-      </c>
-      <c r="AW142">
-        <v>1</v>
-      </c>
-      <c r="AX142">
-        <v>1</v>
-      </c>
-      <c r="AY142">
-        <v>1</v>
-      </c>
-      <c r="AZ142">
-        <v>1</v>
-      </c>
-      <c r="BA142">
-        <v>1</v>
-      </c>
-      <c r="BB142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-      <c r="N143">
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>0</v>
-      </c>
-      <c r="S143">
-        <v>0</v>
-      </c>
-      <c r="T143">
-        <v>0</v>
-      </c>
-      <c r="U143">
-        <v>0</v>
-      </c>
-      <c r="V143">
-        <v>0</v>
-      </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-      <c r="X143">
-        <v>0</v>
-      </c>
-      <c r="Y143">
-        <v>0</v>
-      </c>
-      <c r="Z143">
-        <v>0</v>
-      </c>
-      <c r="AA143">
-        <v>0</v>
-      </c>
-      <c r="AB143">
-        <v>0</v>
-      </c>
-      <c r="AC143">
-        <v>0</v>
-      </c>
-      <c r="AD143">
-        <v>0</v>
-      </c>
-      <c r="AE143">
-        <v>0</v>
-      </c>
-      <c r="AF143">
-        <v>0</v>
-      </c>
-      <c r="AG143">
-        <v>0</v>
-      </c>
-      <c r="AH143">
-        <v>0</v>
-      </c>
-      <c r="AI143">
-        <v>0</v>
-      </c>
-      <c r="AJ143">
-        <v>0</v>
-      </c>
-      <c r="AK143">
-        <v>0</v>
-      </c>
-      <c r="AL143">
-        <v>0</v>
-      </c>
-      <c r="AM143">
-        <v>0</v>
-      </c>
-      <c r="AN143">
-        <v>0</v>
-      </c>
-      <c r="AO143">
-        <v>0</v>
-      </c>
-      <c r="AP143">
-        <v>0</v>
-      </c>
-      <c r="AQ143">
-        <v>0</v>
-      </c>
-      <c r="AR143">
-        <v>0</v>
-      </c>
-      <c r="AS143">
-        <v>1</v>
-      </c>
-      <c r="AT143">
-        <v>1</v>
-      </c>
-      <c r="AU143">
-        <v>1</v>
-      </c>
-      <c r="AV143">
-        <v>1</v>
-      </c>
-      <c r="AW143">
-        <v>1</v>
-      </c>
-      <c r="AX143">
-        <v>1</v>
-      </c>
-      <c r="AY143">
-        <v>1</v>
-      </c>
-      <c r="AZ143">
-        <v>1</v>
-      </c>
-      <c r="BA143">
-        <v>1</v>
-      </c>
-      <c r="BB143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <v>0</v>
-      </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144">
-        <v>0</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>0</v>
-      </c>
-      <c r="S144">
-        <v>0</v>
-      </c>
-      <c r="T144">
-        <v>0</v>
-      </c>
-      <c r="U144">
-        <v>0</v>
-      </c>
-      <c r="V144">
-        <v>0</v>
-      </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-      <c r="X144">
-        <v>0</v>
-      </c>
-      <c r="Y144">
-        <v>0</v>
-      </c>
-      <c r="Z144">
-        <v>0</v>
-      </c>
-      <c r="AA144">
-        <v>0</v>
-      </c>
-      <c r="AB144">
-        <v>0</v>
-      </c>
-      <c r="AC144">
-        <v>0</v>
-      </c>
-      <c r="AD144">
-        <v>0</v>
-      </c>
-      <c r="AE144">
-        <v>0</v>
-      </c>
-      <c r="AF144">
-        <v>0</v>
-      </c>
-      <c r="AG144">
-        <v>0</v>
-      </c>
-      <c r="AH144">
-        <v>0</v>
-      </c>
-      <c r="AI144">
-        <v>0</v>
-      </c>
-      <c r="AJ144">
-        <v>0</v>
-      </c>
-      <c r="AK144">
-        <v>0</v>
-      </c>
-      <c r="AL144">
-        <v>0</v>
-      </c>
-      <c r="AM144">
-        <v>0</v>
-      </c>
-      <c r="AN144">
-        <v>0</v>
-      </c>
-      <c r="AO144">
-        <v>0</v>
-      </c>
-      <c r="AP144">
-        <v>0</v>
-      </c>
-      <c r="AQ144">
-        <v>0</v>
-      </c>
-      <c r="AR144">
-        <v>0</v>
-      </c>
-      <c r="AS144">
-        <v>1</v>
-      </c>
-      <c r="AT144">
-        <v>1</v>
-      </c>
-      <c r="AU144">
-        <v>1</v>
-      </c>
-      <c r="AV144">
-        <v>1</v>
-      </c>
-      <c r="AW144">
-        <v>1</v>
-      </c>
-      <c r="AX144">
-        <v>1</v>
-      </c>
-      <c r="AY144">
-        <v>1</v>
-      </c>
-      <c r="AZ144">
-        <v>1</v>
-      </c>
-      <c r="BA144">
-        <v>1</v>
-      </c>
-      <c r="BB144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <v>0</v>
-      </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>0</v>
-      </c>
-      <c r="S145">
-        <v>0</v>
-      </c>
-      <c r="T145">
-        <v>0</v>
-      </c>
-      <c r="U145">
-        <v>0</v>
-      </c>
-      <c r="V145">
-        <v>0</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <v>0</v>
-      </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
-      <c r="AA145">
-        <v>0</v>
-      </c>
-      <c r="AB145">
-        <v>0</v>
-      </c>
-      <c r="AC145">
-        <v>0</v>
-      </c>
-      <c r="AD145">
-        <v>0</v>
-      </c>
-      <c r="AE145">
-        <v>0</v>
-      </c>
-      <c r="AF145">
-        <v>0</v>
-      </c>
-      <c r="AG145">
-        <v>0</v>
-      </c>
-      <c r="AH145">
-        <v>0</v>
-      </c>
-      <c r="AI145">
-        <v>0</v>
-      </c>
-      <c r="AJ145">
-        <v>0</v>
-      </c>
-      <c r="AK145">
-        <v>0</v>
-      </c>
-      <c r="AL145">
-        <v>0</v>
-      </c>
-      <c r="AM145">
-        <v>0</v>
-      </c>
-      <c r="AN145">
-        <v>0</v>
-      </c>
-      <c r="AO145">
-        <v>0</v>
-      </c>
-      <c r="AP145">
-        <v>0</v>
-      </c>
-      <c r="AQ145">
-        <v>0</v>
-      </c>
-      <c r="AR145">
-        <v>0</v>
-      </c>
-      <c r="AS145">
-        <v>1</v>
-      </c>
-      <c r="AT145">
-        <v>1</v>
-      </c>
-      <c r="AU145">
-        <v>1</v>
-      </c>
-      <c r="AV145">
-        <v>1</v>
-      </c>
-      <c r="AW145">
-        <v>1</v>
-      </c>
-      <c r="AX145">
-        <v>1</v>
-      </c>
-      <c r="AY145">
-        <v>1</v>
-      </c>
-      <c r="AZ145">
-        <v>1</v>
-      </c>
-      <c r="BA145">
-        <v>1</v>
-      </c>
-      <c r="BB145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-      <c r="J146">
-        <v>1</v>
-      </c>
-      <c r="K146">
-        <v>1</v>
-      </c>
-      <c r="L146">
-        <v>1</v>
-      </c>
-      <c r="M146">
-        <v>1</v>
-      </c>
-      <c r="N146">
-        <v>1</v>
-      </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146">
-        <v>0</v>
-      </c>
-      <c r="Q146">
-        <v>1</v>
-      </c>
-      <c r="R146">
-        <v>1</v>
-      </c>
-      <c r="S146">
-        <v>1</v>
-      </c>
-      <c r="T146">
-        <v>1</v>
-      </c>
-      <c r="U146">
-        <v>1</v>
-      </c>
-      <c r="V146">
-        <v>1</v>
-      </c>
-      <c r="W146">
-        <v>1</v>
-      </c>
-      <c r="X146">
-        <v>0</v>
-      </c>
-      <c r="Y146">
-        <v>1</v>
-      </c>
-      <c r="Z146">
-        <v>0</v>
-      </c>
-      <c r="AA146">
-        <v>1</v>
-      </c>
-      <c r="AB146">
-        <v>1</v>
-      </c>
-      <c r="AC146">
-        <v>1</v>
-      </c>
-      <c r="AD146">
-        <v>1</v>
-      </c>
-      <c r="AE146">
-        <v>0</v>
-      </c>
-      <c r="AF146">
-        <v>1</v>
-      </c>
-      <c r="AG146">
-        <v>1</v>
-      </c>
-      <c r="AH146">
-        <v>1</v>
-      </c>
-      <c r="AI146">
-        <v>1</v>
-      </c>
-      <c r="AJ146">
-        <v>0</v>
-      </c>
-      <c r="AK146">
-        <v>0</v>
-      </c>
-      <c r="AL146">
-        <v>1</v>
-      </c>
-      <c r="AM146">
-        <v>1</v>
-      </c>
-      <c r="AN146">
-        <v>1</v>
-      </c>
-      <c r="AO146">
-        <v>1</v>
-      </c>
-      <c r="AP146">
-        <v>1</v>
-      </c>
-      <c r="AQ146">
-        <v>1</v>
-      </c>
-      <c r="AR146">
-        <v>1</v>
-      </c>
-      <c r="AS146">
-        <v>0</v>
-      </c>
-      <c r="AT146">
-        <v>0</v>
-      </c>
-      <c r="AU146">
-        <v>0</v>
-      </c>
-      <c r="AV146">
-        <v>0</v>
-      </c>
-      <c r="AW146">
-        <v>0</v>
-      </c>
-      <c r="AX146">
-        <v>0</v>
-      </c>
-      <c r="AY146">
-        <v>0</v>
-      </c>
-      <c r="AZ146">
-        <v>0</v>
-      </c>
-      <c r="BA146">
-        <v>0</v>
-      </c>
-      <c r="BB146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-      <c r="J147">
-        <v>1</v>
-      </c>
-      <c r="K147">
-        <v>1</v>
-      </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-      <c r="M147">
-        <v>1</v>
-      </c>
-      <c r="N147">
-        <v>1</v>
-      </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-      <c r="P147">
-        <v>0</v>
-      </c>
-      <c r="Q147">
-        <v>1</v>
-      </c>
-      <c r="R147">
-        <v>1</v>
-      </c>
-      <c r="S147">
-        <v>1</v>
-      </c>
-      <c r="T147">
-        <v>1</v>
-      </c>
-      <c r="U147">
-        <v>1</v>
-      </c>
-      <c r="V147">
-        <v>1</v>
-      </c>
-      <c r="W147">
-        <v>1</v>
-      </c>
-      <c r="X147">
-        <v>0</v>
-      </c>
-      <c r="Y147">
-        <v>1</v>
-      </c>
-      <c r="Z147">
-        <v>0</v>
-      </c>
-      <c r="AA147">
-        <v>1</v>
-      </c>
-      <c r="AB147">
-        <v>1</v>
-      </c>
-      <c r="AC147">
-        <v>1</v>
-      </c>
-      <c r="AD147">
-        <v>1</v>
-      </c>
-      <c r="AE147">
-        <v>0</v>
-      </c>
-      <c r="AF147">
-        <v>1</v>
-      </c>
-      <c r="AG147">
-        <v>1</v>
-      </c>
-      <c r="AH147">
-        <v>1</v>
-      </c>
-      <c r="AI147">
-        <v>1</v>
-      </c>
-      <c r="AJ147">
-        <v>0</v>
-      </c>
-      <c r="AK147">
-        <v>0</v>
-      </c>
-      <c r="AL147">
-        <v>1</v>
-      </c>
-      <c r="AM147">
-        <v>1</v>
-      </c>
-      <c r="AN147">
-        <v>1</v>
-      </c>
-      <c r="AO147">
-        <v>1</v>
-      </c>
-      <c r="AP147">
-        <v>1</v>
-      </c>
-      <c r="AQ147">
-        <v>1</v>
-      </c>
-      <c r="AR147">
-        <v>1</v>
-      </c>
-      <c r="AS147">
-        <v>0</v>
-      </c>
-      <c r="AT147">
-        <v>0</v>
-      </c>
-      <c r="AU147">
-        <v>0</v>
-      </c>
-      <c r="AV147">
-        <v>0</v>
-      </c>
-      <c r="AW147">
-        <v>0</v>
-      </c>
-      <c r="AX147">
-        <v>0</v>
-      </c>
-      <c r="AY147">
-        <v>0</v>
-      </c>
-      <c r="AZ147">
-        <v>0</v>
-      </c>
-      <c r="BA147">
-        <v>0</v>
-      </c>
-      <c r="BB147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="J148">
-        <v>1</v>
-      </c>
-      <c r="K148">
-        <v>1</v>
-      </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148">
-        <v>1</v>
-      </c>
-      <c r="N148">
-        <v>1</v>
-      </c>
-      <c r="O148">
-        <v>0</v>
-      </c>
-      <c r="P148">
-        <v>0</v>
-      </c>
-      <c r="Q148">
-        <v>1</v>
-      </c>
-      <c r="R148">
-        <v>1</v>
-      </c>
-      <c r="S148">
-        <v>1</v>
-      </c>
-      <c r="T148">
-        <v>1</v>
-      </c>
-      <c r="U148">
-        <v>1</v>
-      </c>
-      <c r="V148">
-        <v>1</v>
-      </c>
-      <c r="W148">
-        <v>1</v>
-      </c>
-      <c r="X148">
-        <v>0</v>
-      </c>
-      <c r="Y148">
-        <v>1</v>
-      </c>
-      <c r="Z148">
-        <v>0</v>
-      </c>
-      <c r="AA148">
-        <v>1</v>
-      </c>
-      <c r="AB148">
-        <v>1</v>
-      </c>
-      <c r="AC148">
-        <v>1</v>
-      </c>
-      <c r="AD148">
-        <v>1</v>
-      </c>
-      <c r="AE148">
-        <v>0</v>
-      </c>
-      <c r="AF148">
-        <v>1</v>
-      </c>
-      <c r="AG148">
-        <v>1</v>
-      </c>
-      <c r="AH148">
-        <v>1</v>
-      </c>
-      <c r="AI148">
-        <v>1</v>
-      </c>
-      <c r="AJ148">
-        <v>0</v>
-      </c>
-      <c r="AK148">
-        <v>0</v>
-      </c>
-      <c r="AL148">
-        <v>1</v>
-      </c>
-      <c r="AM148">
-        <v>1</v>
-      </c>
-      <c r="AN148">
-        <v>1</v>
-      </c>
-      <c r="AO148">
-        <v>1</v>
-      </c>
-      <c r="AP148">
-        <v>1</v>
-      </c>
-      <c r="AQ148">
-        <v>1</v>
-      </c>
-      <c r="AR148">
-        <v>1</v>
-      </c>
-      <c r="AS148">
-        <v>0</v>
-      </c>
-      <c r="AT148">
-        <v>0</v>
-      </c>
-      <c r="AU148">
-        <v>0</v>
-      </c>
-      <c r="AV148">
-        <v>0</v>
-      </c>
-      <c r="AW148">
-        <v>0</v>
-      </c>
-      <c r="AX148">
-        <v>0</v>
-      </c>
-      <c r="AY148">
-        <v>0</v>
-      </c>
-      <c r="AZ148">
-        <v>0</v>
-      </c>
-      <c r="BA148">
-        <v>0</v>
-      </c>
-      <c r="BB148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-      <c r="J149">
-        <v>1</v>
-      </c>
-      <c r="K149">
-        <v>1</v>
-      </c>
-      <c r="L149">
-        <v>1</v>
-      </c>
-      <c r="M149">
-        <v>1</v>
-      </c>
-      <c r="N149">
-        <v>1</v>
-      </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-      <c r="P149">
-        <v>0</v>
-      </c>
-      <c r="Q149">
-        <v>1</v>
-      </c>
-      <c r="R149">
-        <v>1</v>
-      </c>
-      <c r="S149">
-        <v>1</v>
-      </c>
-      <c r="T149">
-        <v>1</v>
-      </c>
-      <c r="U149">
-        <v>1</v>
-      </c>
-      <c r="V149">
-        <v>1</v>
-      </c>
-      <c r="W149">
-        <v>1</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
-      </c>
-      <c r="Y149">
-        <v>1</v>
-      </c>
-      <c r="Z149">
-        <v>0</v>
-      </c>
-      <c r="AA149">
-        <v>1</v>
-      </c>
-      <c r="AB149">
-        <v>1</v>
-      </c>
-      <c r="AC149">
-        <v>1</v>
-      </c>
-      <c r="AD149">
-        <v>1</v>
-      </c>
-      <c r="AE149">
-        <v>0</v>
-      </c>
-      <c r="AF149">
-        <v>1</v>
-      </c>
-      <c r="AG149">
-        <v>1</v>
-      </c>
-      <c r="AH149">
-        <v>1</v>
-      </c>
-      <c r="AI149">
-        <v>1</v>
-      </c>
-      <c r="AJ149">
-        <v>0</v>
-      </c>
-      <c r="AK149">
-        <v>0</v>
-      </c>
-      <c r="AL149">
-        <v>1</v>
-      </c>
-      <c r="AM149">
-        <v>1</v>
-      </c>
-      <c r="AN149">
-        <v>1</v>
-      </c>
-      <c r="AO149">
-        <v>1</v>
-      </c>
-      <c r="AP149">
-        <v>1</v>
-      </c>
-      <c r="AQ149">
-        <v>1</v>
-      </c>
-      <c r="AR149">
-        <v>1</v>
-      </c>
-      <c r="AS149">
-        <v>0</v>
-      </c>
-      <c r="AT149">
-        <v>0</v>
-      </c>
-      <c r="AU149">
-        <v>0</v>
-      </c>
-      <c r="AV149">
-        <v>0</v>
-      </c>
-      <c r="AW149">
-        <v>0</v>
-      </c>
-      <c r="AX149">
-        <v>0</v>
-      </c>
-      <c r="AY149">
-        <v>0</v>
-      </c>
-      <c r="AZ149">
-        <v>0</v>
-      </c>
-      <c r="BA149">
-        <v>0</v>
-      </c>
-      <c r="BB149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-      <c r="J150">
-        <v>1</v>
-      </c>
-      <c r="K150">
-        <v>1</v>
-      </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-      <c r="M150">
-        <v>1</v>
-      </c>
-      <c r="N150">
-        <v>1</v>
-      </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <v>1</v>
-      </c>
-      <c r="R150">
-        <v>1</v>
-      </c>
-      <c r="S150">
-        <v>1</v>
-      </c>
-      <c r="T150">
-        <v>1</v>
-      </c>
-      <c r="U150">
-        <v>1</v>
-      </c>
-      <c r="V150">
-        <v>1</v>
-      </c>
-      <c r="W150">
-        <v>1</v>
-      </c>
-      <c r="X150">
-        <v>0</v>
-      </c>
-      <c r="Y150">
-        <v>1</v>
-      </c>
-      <c r="Z150">
-        <v>0</v>
-      </c>
-      <c r="AA150">
-        <v>1</v>
-      </c>
-      <c r="AB150">
-        <v>1</v>
-      </c>
-      <c r="AC150">
-        <v>1</v>
-      </c>
-      <c r="AD150">
-        <v>1</v>
-      </c>
-      <c r="AE150">
-        <v>0</v>
-      </c>
-      <c r="AF150">
-        <v>1</v>
-      </c>
-      <c r="AG150">
-        <v>1</v>
-      </c>
-      <c r="AH150">
-        <v>1</v>
-      </c>
-      <c r="AI150">
-        <v>1</v>
-      </c>
-      <c r="AJ150">
-        <v>0</v>
-      </c>
-      <c r="AK150">
-        <v>0</v>
-      </c>
-      <c r="AL150">
-        <v>1</v>
-      </c>
-      <c r="AM150">
-        <v>1</v>
-      </c>
-      <c r="AN150">
-        <v>1</v>
-      </c>
-      <c r="AO150">
-        <v>1</v>
-      </c>
-      <c r="AP150">
-        <v>1</v>
-      </c>
-      <c r="AQ150">
-        <v>1</v>
-      </c>
-      <c r="AR150">
-        <v>1</v>
-      </c>
-      <c r="AS150">
-        <v>0</v>
-      </c>
-      <c r="AT150">
-        <v>0</v>
-      </c>
-      <c r="AU150">
-        <v>0</v>
-      </c>
-      <c r="AV150">
-        <v>0</v>
-      </c>
-      <c r="AW150">
-        <v>0</v>
-      </c>
-      <c r="AX150">
-        <v>0</v>
-      </c>
-      <c r="AY150">
-        <v>0</v>
-      </c>
-      <c r="AZ150">
-        <v>0</v>
-      </c>
-      <c r="BA150">
-        <v>0</v>
-      </c>
-      <c r="BB150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>1</v>
-      </c>
-      <c r="N151">
-        <v>0</v>
-      </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151">
-        <v>0</v>
-      </c>
-      <c r="S151">
-        <v>0</v>
-      </c>
-      <c r="T151">
-        <v>0</v>
-      </c>
-      <c r="U151">
-        <v>0</v>
-      </c>
-      <c r="V151">
-        <v>0</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <v>0</v>
-      </c>
-      <c r="Y151">
-        <v>0</v>
-      </c>
-      <c r="Z151">
-        <v>0</v>
-      </c>
-      <c r="AA151">
-        <v>0</v>
-      </c>
-      <c r="AB151">
-        <v>0</v>
-      </c>
-      <c r="AC151">
-        <v>0</v>
-      </c>
-      <c r="AD151">
-        <v>0</v>
-      </c>
-      <c r="AE151">
-        <v>0</v>
-      </c>
-      <c r="AF151">
-        <v>0</v>
-      </c>
-      <c r="AG151">
-        <v>0</v>
-      </c>
-      <c r="AH151">
-        <v>0</v>
-      </c>
-      <c r="AI151">
-        <v>0</v>
-      </c>
-      <c r="AJ151">
-        <v>0</v>
-      </c>
-      <c r="AK151">
-        <v>0</v>
-      </c>
-      <c r="AL151">
-        <v>0</v>
-      </c>
-      <c r="AM151">
-        <v>0</v>
-      </c>
-      <c r="AN151">
-        <v>0</v>
-      </c>
-      <c r="AO151">
-        <v>0</v>
-      </c>
-      <c r="AP151">
-        <v>0</v>
-      </c>
-      <c r="AQ151">
-        <v>0</v>
-      </c>
-      <c r="AR151">
-        <v>0</v>
-      </c>
-      <c r="AS151">
-        <v>0</v>
-      </c>
-      <c r="AT151">
-        <v>0</v>
-      </c>
-      <c r="AU151">
-        <v>0</v>
-      </c>
-      <c r="AV151">
-        <v>0</v>
-      </c>
-      <c r="AW151">
-        <v>0</v>
-      </c>
-      <c r="AX151">
-        <v>0</v>
-      </c>
-      <c r="AY151">
-        <v>0</v>
-      </c>
-      <c r="AZ151">
-        <v>0</v>
-      </c>
-      <c r="BA151">
-        <v>0</v>
-      </c>
-      <c r="BB151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152">
-        <v>1</v>
-      </c>
-      <c r="N152">
-        <v>0</v>
-      </c>
-      <c r="O152">
-        <v>0</v>
-      </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-      <c r="Q152">
-        <v>0</v>
-      </c>
-      <c r="R152">
-        <v>0</v>
-      </c>
-      <c r="S152">
-        <v>0</v>
-      </c>
-      <c r="T152">
-        <v>0</v>
-      </c>
-      <c r="U152">
-        <v>0</v>
-      </c>
-      <c r="V152">
-        <v>0</v>
-      </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-      <c r="X152">
-        <v>0</v>
-      </c>
-      <c r="Y152">
-        <v>0</v>
-      </c>
-      <c r="Z152">
-        <v>0</v>
-      </c>
-      <c r="AA152">
-        <v>0</v>
-      </c>
-      <c r="AB152">
-        <v>0</v>
-      </c>
-      <c r="AC152">
-        <v>0</v>
-      </c>
-      <c r="AD152">
-        <v>0</v>
-      </c>
-      <c r="AE152">
-        <v>0</v>
-      </c>
-      <c r="AF152">
-        <v>0</v>
-      </c>
-      <c r="AG152">
-        <v>0</v>
-      </c>
-      <c r="AH152">
-        <v>0</v>
-      </c>
-      <c r="AI152">
-        <v>0</v>
-      </c>
-      <c r="AJ152">
-        <v>0</v>
-      </c>
-      <c r="AK152">
-        <v>0</v>
-      </c>
-      <c r="AL152">
-        <v>0</v>
-      </c>
-      <c r="AM152">
-        <v>0</v>
-      </c>
-      <c r="AN152">
-        <v>0</v>
-      </c>
-      <c r="AO152">
-        <v>0</v>
-      </c>
-      <c r="AP152">
-        <v>0</v>
-      </c>
-      <c r="AQ152">
-        <v>0</v>
-      </c>
-      <c r="AR152">
-        <v>0</v>
-      </c>
-      <c r="AS152">
-        <v>0</v>
-      </c>
-      <c r="AT152">
-        <v>0</v>
-      </c>
-      <c r="AU152">
-        <v>0</v>
-      </c>
-      <c r="AV152">
-        <v>0</v>
-      </c>
-      <c r="AW152">
-        <v>0</v>
-      </c>
-      <c r="AX152">
-        <v>0</v>
-      </c>
-      <c r="AY152">
-        <v>0</v>
-      </c>
-      <c r="AZ152">
-        <v>0</v>
-      </c>
-      <c r="BA152">
-        <v>0</v>
-      </c>
-      <c r="BB152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="M153">
-        <v>1</v>
-      </c>
-      <c r="N153">
-        <v>0</v>
-      </c>
-      <c r="O153">
-        <v>0</v>
-      </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-      <c r="Q153">
-        <v>0</v>
-      </c>
-      <c r="R153">
-        <v>0</v>
-      </c>
-      <c r="S153">
-        <v>0</v>
-      </c>
-      <c r="T153">
-        <v>0</v>
-      </c>
-      <c r="U153">
-        <v>0</v>
-      </c>
-      <c r="V153">
-        <v>0</v>
-      </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-      <c r="X153">
-        <v>0</v>
-      </c>
-      <c r="Y153">
-        <v>0</v>
-      </c>
-      <c r="Z153">
-        <v>0</v>
-      </c>
-      <c r="AA153">
-        <v>0</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
-      </c>
-      <c r="AC153">
-        <v>0</v>
-      </c>
-      <c r="AD153">
-        <v>0</v>
-      </c>
-      <c r="AE153">
-        <v>0</v>
-      </c>
-      <c r="AF153">
-        <v>0</v>
-      </c>
-      <c r="AG153">
-        <v>0</v>
-      </c>
-      <c r="AH153">
-        <v>0</v>
-      </c>
-      <c r="AI153">
-        <v>0</v>
-      </c>
-      <c r="AJ153">
-        <v>0</v>
-      </c>
-      <c r="AK153">
-        <v>0</v>
-      </c>
-      <c r="AL153">
-        <v>0</v>
-      </c>
-      <c r="AM153">
-        <v>0</v>
-      </c>
-      <c r="AN153">
-        <v>0</v>
-      </c>
-      <c r="AO153">
-        <v>0</v>
-      </c>
-      <c r="AP153">
-        <v>0</v>
-      </c>
-      <c r="AQ153">
-        <v>0</v>
-      </c>
-      <c r="AR153">
-        <v>0</v>
-      </c>
-      <c r="AS153">
-        <v>0</v>
-      </c>
-      <c r="AT153">
-        <v>0</v>
-      </c>
-      <c r="AU153">
-        <v>0</v>
-      </c>
-      <c r="AV153">
-        <v>0</v>
-      </c>
-      <c r="AW153">
-        <v>0</v>
-      </c>
-      <c r="AX153">
-        <v>0</v>
-      </c>
-      <c r="AY153">
-        <v>0</v>
-      </c>
-      <c r="AZ153">
-        <v>0</v>
-      </c>
-      <c r="BA153">
-        <v>0</v>
-      </c>
-      <c r="BB153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-      <c r="M154">
-        <v>1</v>
-      </c>
-      <c r="N154">
-        <v>0</v>
-      </c>
-      <c r="O154">
-        <v>0</v>
-      </c>
-      <c r="P154">
-        <v>0</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
-        <v>0</v>
-      </c>
-      <c r="S154">
-        <v>0</v>
-      </c>
-      <c r="T154">
-        <v>0</v>
-      </c>
-      <c r="U154">
-        <v>0</v>
-      </c>
-      <c r="V154">
-        <v>0</v>
-      </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-      <c r="X154">
-        <v>0</v>
-      </c>
-      <c r="Y154">
-        <v>0</v>
-      </c>
-      <c r="Z154">
-        <v>0</v>
-      </c>
-      <c r="AA154">
-        <v>0</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <v>0</v>
-      </c>
-      <c r="AD154">
-        <v>0</v>
-      </c>
-      <c r="AE154">
-        <v>0</v>
-      </c>
-      <c r="AF154">
-        <v>0</v>
-      </c>
-      <c r="AG154">
-        <v>0</v>
-      </c>
-      <c r="AH154">
-        <v>0</v>
-      </c>
-      <c r="AI154">
-        <v>0</v>
-      </c>
-      <c r="AJ154">
-        <v>0</v>
-      </c>
-      <c r="AK154">
-        <v>0</v>
-      </c>
-      <c r="AL154">
-        <v>0</v>
-      </c>
-      <c r="AM154">
-        <v>0</v>
-      </c>
-      <c r="AN154">
-        <v>0</v>
-      </c>
-      <c r="AO154">
-        <v>0</v>
-      </c>
-      <c r="AP154">
-        <v>0</v>
-      </c>
-      <c r="AQ154">
-        <v>0</v>
-      </c>
-      <c r="AR154">
-        <v>0</v>
-      </c>
-      <c r="AS154">
-        <v>0</v>
-      </c>
-      <c r="AT154">
-        <v>0</v>
-      </c>
-      <c r="AU154">
-        <v>0</v>
-      </c>
-      <c r="AV154">
-        <v>0</v>
-      </c>
-      <c r="AW154">
-        <v>0</v>
-      </c>
-      <c r="AX154">
-        <v>0</v>
-      </c>
-      <c r="AY154">
-        <v>0</v>
-      </c>
-      <c r="AZ154">
-        <v>0</v>
-      </c>
-      <c r="BA154">
-        <v>0</v>
-      </c>
-      <c r="BB154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="M155">
-        <v>1</v>
-      </c>
-      <c r="N155">
-        <v>0</v>
-      </c>
-      <c r="O155">
-        <v>0</v>
-      </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-      <c r="Q155">
-        <v>0</v>
-      </c>
-      <c r="R155">
-        <v>0</v>
-      </c>
-      <c r="S155">
-        <v>0</v>
-      </c>
-      <c r="T155">
-        <v>0</v>
-      </c>
-      <c r="U155">
-        <v>0</v>
-      </c>
-      <c r="V155">
-        <v>0</v>
-      </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-      <c r="X155">
-        <v>0</v>
-      </c>
-      <c r="Y155">
-        <v>0</v>
-      </c>
-      <c r="Z155">
-        <v>0</v>
-      </c>
-      <c r="AA155">
-        <v>0</v>
-      </c>
-      <c r="AB155">
-        <v>0</v>
-      </c>
-      <c r="AC155">
-        <v>0</v>
-      </c>
-      <c r="AD155">
-        <v>0</v>
-      </c>
-      <c r="AE155">
-        <v>0</v>
-      </c>
-      <c r="AF155">
-        <v>0</v>
-      </c>
-      <c r="AG155">
-        <v>0</v>
-      </c>
-      <c r="AH155">
-        <v>0</v>
-      </c>
-      <c r="AI155">
-        <v>0</v>
-      </c>
-      <c r="AJ155">
-        <v>0</v>
-      </c>
-      <c r="AK155">
-        <v>0</v>
-      </c>
-      <c r="AL155">
-        <v>0</v>
-      </c>
-      <c r="AM155">
-        <v>0</v>
-      </c>
-      <c r="AN155">
-        <v>0</v>
-      </c>
-      <c r="AO155">
-        <v>0</v>
-      </c>
-      <c r="AP155">
-        <v>0</v>
-      </c>
-      <c r="AQ155">
-        <v>0</v>
-      </c>
-      <c r="AR155">
-        <v>0</v>
-      </c>
-      <c r="AS155">
-        <v>0</v>
-      </c>
-      <c r="AT155">
-        <v>0</v>
-      </c>
-      <c r="AU155">
-        <v>0</v>
-      </c>
-      <c r="AV155">
-        <v>0</v>
-      </c>
-      <c r="AW155">
-        <v>0</v>
-      </c>
-      <c r="AX155">
-        <v>0</v>
-      </c>
-      <c r="AY155">
-        <v>0</v>
-      </c>
-      <c r="AZ155">
-        <v>0</v>
-      </c>
-      <c r="BA155">
-        <v>0</v>
-      </c>
-      <c r="BB155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-      <c r="J156">
-        <v>1</v>
-      </c>
-      <c r="K156">
-        <v>1</v>
-      </c>
-      <c r="L156">
-        <v>1</v>
-      </c>
-      <c r="M156">
-        <v>1</v>
-      </c>
-      <c r="N156">
-        <v>1</v>
-      </c>
-      <c r="O156">
-        <v>1</v>
-      </c>
-      <c r="P156">
-        <v>1</v>
-      </c>
-      <c r="Q156">
-        <v>1</v>
-      </c>
-      <c r="R156">
-        <v>1</v>
-      </c>
-      <c r="S156">
-        <v>1</v>
-      </c>
-      <c r="T156">
-        <v>1</v>
-      </c>
-      <c r="U156">
-        <v>1</v>
-      </c>
-      <c r="V156">
-        <v>1</v>
-      </c>
-      <c r="W156">
-        <v>1</v>
-      </c>
-      <c r="X156">
-        <v>1</v>
-      </c>
-      <c r="Y156">
-        <v>1</v>
-      </c>
-      <c r="Z156">
-        <v>1</v>
-      </c>
-      <c r="AA156">
-        <v>1</v>
-      </c>
-      <c r="AB156">
-        <v>1</v>
-      </c>
-      <c r="AC156">
-        <v>1</v>
-      </c>
-      <c r="AD156">
-        <v>1</v>
-      </c>
-      <c r="AE156">
-        <v>1</v>
-      </c>
-      <c r="AF156">
-        <v>1</v>
-      </c>
-      <c r="AG156">
-        <v>1</v>
-      </c>
-      <c r="AH156">
-        <v>1</v>
-      </c>
-      <c r="AI156">
-        <v>1</v>
-      </c>
-      <c r="AJ156">
-        <v>1</v>
-      </c>
-      <c r="AK156">
-        <v>1</v>
-      </c>
-      <c r="AL156">
-        <v>1</v>
-      </c>
-      <c r="AM156">
-        <v>1</v>
-      </c>
-      <c r="AN156">
-        <v>1</v>
-      </c>
-      <c r="AO156">
-        <v>1</v>
-      </c>
-      <c r="AP156">
-        <v>1</v>
-      </c>
-      <c r="AQ156">
-        <v>1</v>
-      </c>
-      <c r="AR156">
-        <v>1</v>
-      </c>
-      <c r="AS156">
-        <v>0</v>
-      </c>
-      <c r="AT156">
-        <v>0</v>
-      </c>
-      <c r="AU156">
-        <v>0</v>
-      </c>
-      <c r="AV156">
-        <v>0</v>
-      </c>
-      <c r="AW156">
-        <v>0</v>
-      </c>
-      <c r="AX156">
-        <v>0</v>
-      </c>
-      <c r="AY156">
-        <v>0</v>
-      </c>
-      <c r="AZ156">
-        <v>0</v>
-      </c>
-      <c r="BA156">
-        <v>0</v>
-      </c>
-      <c r="BB156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-      <c r="J157">
-        <v>1</v>
-      </c>
-      <c r="K157">
-        <v>1</v>
-      </c>
-      <c r="L157">
-        <v>1</v>
-      </c>
-      <c r="M157">
-        <v>1</v>
-      </c>
-      <c r="N157">
-        <v>1</v>
-      </c>
-      <c r="O157">
-        <v>1</v>
-      </c>
-      <c r="P157">
-        <v>1</v>
-      </c>
-      <c r="Q157">
-        <v>1</v>
-      </c>
-      <c r="R157">
-        <v>1</v>
-      </c>
-      <c r="S157">
-        <v>1</v>
-      </c>
-      <c r="T157">
-        <v>1</v>
-      </c>
-      <c r="U157">
-        <v>1</v>
-      </c>
-      <c r="V157">
-        <v>1</v>
-      </c>
-      <c r="W157">
-        <v>1</v>
-      </c>
-      <c r="X157">
-        <v>1</v>
-      </c>
-      <c r="Y157">
-        <v>1</v>
-      </c>
-      <c r="Z157">
-        <v>1</v>
-      </c>
-      <c r="AA157">
-        <v>1</v>
-      </c>
-      <c r="AB157">
-        <v>1</v>
-      </c>
-      <c r="AC157">
-        <v>1</v>
-      </c>
-      <c r="AD157">
-        <v>1</v>
-      </c>
-      <c r="AE157">
-        <v>1</v>
-      </c>
-      <c r="AF157">
-        <v>1</v>
-      </c>
-      <c r="AG157">
-        <v>1</v>
-      </c>
-      <c r="AH157">
-        <v>1</v>
-      </c>
-      <c r="AI157">
-        <v>1</v>
-      </c>
-      <c r="AJ157">
-        <v>1</v>
-      </c>
-      <c r="AK157">
-        <v>1</v>
-      </c>
-      <c r="AL157">
-        <v>1</v>
-      </c>
-      <c r="AM157">
-        <v>1</v>
-      </c>
-      <c r="AN157">
-        <v>1</v>
-      </c>
-      <c r="AO157">
-        <v>1</v>
-      </c>
-      <c r="AP157">
-        <v>1</v>
-      </c>
-      <c r="AQ157">
-        <v>1</v>
-      </c>
-      <c r="AR157">
-        <v>1</v>
-      </c>
-      <c r="AS157">
-        <v>0</v>
-      </c>
-      <c r="AT157">
-        <v>0</v>
-      </c>
-      <c r="AU157">
-        <v>0</v>
-      </c>
-      <c r="AV157">
-        <v>0</v>
-      </c>
-      <c r="AW157">
-        <v>0</v>
-      </c>
-      <c r="AX157">
-        <v>0</v>
-      </c>
-      <c r="AY157">
-        <v>0</v>
-      </c>
-      <c r="AZ157">
-        <v>0</v>
-      </c>
-      <c r="BA157">
-        <v>0</v>
-      </c>
-      <c r="BB157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-      <c r="J158">
-        <v>1</v>
-      </c>
-      <c r="K158">
-        <v>1</v>
-      </c>
-      <c r="L158">
-        <v>1</v>
-      </c>
-      <c r="M158">
-        <v>1</v>
-      </c>
-      <c r="N158">
-        <v>1</v>
-      </c>
-      <c r="O158">
-        <v>1</v>
-      </c>
-      <c r="P158">
-        <v>1</v>
-      </c>
-      <c r="Q158">
-        <v>1</v>
-      </c>
-      <c r="R158">
-        <v>1</v>
-      </c>
-      <c r="S158">
-        <v>1</v>
-      </c>
-      <c r="T158">
-        <v>1</v>
-      </c>
-      <c r="U158">
-        <v>1</v>
-      </c>
-      <c r="V158">
-        <v>1</v>
-      </c>
-      <c r="W158">
-        <v>1</v>
-      </c>
-      <c r="X158">
-        <v>1</v>
-      </c>
-      <c r="Y158">
-        <v>1</v>
-      </c>
-      <c r="Z158">
-        <v>1</v>
-      </c>
-      <c r="AA158">
-        <v>1</v>
-      </c>
-      <c r="AB158">
-        <v>1</v>
-      </c>
-      <c r="AC158">
-        <v>1</v>
-      </c>
-      <c r="AD158">
-        <v>1</v>
-      </c>
-      <c r="AE158">
-        <v>1</v>
-      </c>
-      <c r="AF158">
-        <v>1</v>
-      </c>
-      <c r="AG158">
-        <v>1</v>
-      </c>
-      <c r="AH158">
-        <v>1</v>
-      </c>
-      <c r="AI158">
-        <v>1</v>
-      </c>
-      <c r="AJ158">
-        <v>1</v>
-      </c>
-      <c r="AK158">
-        <v>1</v>
-      </c>
-      <c r="AL158">
-        <v>1</v>
-      </c>
-      <c r="AM158">
-        <v>1</v>
-      </c>
-      <c r="AN158">
-        <v>1</v>
-      </c>
-      <c r="AO158">
-        <v>1</v>
-      </c>
-      <c r="AP158">
-        <v>1</v>
-      </c>
-      <c r="AQ158">
-        <v>1</v>
-      </c>
-      <c r="AR158">
-        <v>1</v>
-      </c>
-      <c r="AS158">
-        <v>0</v>
-      </c>
-      <c r="AT158">
-        <v>0</v>
-      </c>
-      <c r="AU158">
-        <v>0</v>
-      </c>
-      <c r="AV158">
-        <v>0</v>
-      </c>
-      <c r="AW158">
-        <v>0</v>
-      </c>
-      <c r="AX158">
-        <v>0</v>
-      </c>
-      <c r="AY158">
-        <v>0</v>
-      </c>
-      <c r="AZ158">
-        <v>0</v>
-      </c>
-      <c r="BA158">
-        <v>0</v>
-      </c>
-      <c r="BB158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-      <c r="J159">
-        <v>1</v>
-      </c>
-      <c r="K159">
-        <v>1</v>
-      </c>
-      <c r="L159">
-        <v>1</v>
-      </c>
-      <c r="M159">
-        <v>1</v>
-      </c>
-      <c r="N159">
-        <v>1</v>
-      </c>
-      <c r="O159">
-        <v>1</v>
-      </c>
-      <c r="P159">
-        <v>1</v>
-      </c>
-      <c r="Q159">
-        <v>1</v>
-      </c>
-      <c r="R159">
-        <v>1</v>
-      </c>
-      <c r="S159">
-        <v>1</v>
-      </c>
-      <c r="T159">
-        <v>1</v>
-      </c>
-      <c r="U159">
-        <v>1</v>
-      </c>
-      <c r="V159">
-        <v>1</v>
-      </c>
-      <c r="W159">
-        <v>1</v>
-      </c>
-      <c r="X159">
-        <v>1</v>
-      </c>
-      <c r="Y159">
-        <v>1</v>
-      </c>
-      <c r="Z159">
-        <v>1</v>
-      </c>
-      <c r="AA159">
-        <v>1</v>
-      </c>
-      <c r="AB159">
-        <v>1</v>
-      </c>
-      <c r="AC159">
-        <v>1</v>
-      </c>
-      <c r="AD159">
-        <v>1</v>
-      </c>
-      <c r="AE159">
-        <v>1</v>
-      </c>
-      <c r="AF159">
-        <v>1</v>
-      </c>
-      <c r="AG159">
-        <v>1</v>
-      </c>
-      <c r="AH159">
-        <v>1</v>
-      </c>
-      <c r="AI159">
-        <v>1</v>
-      </c>
-      <c r="AJ159">
-        <v>1</v>
-      </c>
-      <c r="AK159">
-        <v>1</v>
-      </c>
-      <c r="AL159">
-        <v>1</v>
-      </c>
-      <c r="AM159">
-        <v>1</v>
-      </c>
-      <c r="AN159">
-        <v>1</v>
-      </c>
-      <c r="AO159">
-        <v>1</v>
-      </c>
-      <c r="AP159">
-        <v>1</v>
-      </c>
-      <c r="AQ159">
-        <v>1</v>
-      </c>
-      <c r="AR159">
-        <v>1</v>
-      </c>
-      <c r="AS159">
-        <v>0</v>
-      </c>
-      <c r="AT159">
-        <v>0</v>
-      </c>
-      <c r="AU159">
-        <v>0</v>
-      </c>
-      <c r="AV159">
-        <v>0</v>
-      </c>
-      <c r="AW159">
-        <v>0</v>
-      </c>
-      <c r="AX159">
-        <v>0</v>
-      </c>
-      <c r="AY159">
-        <v>0</v>
-      </c>
-      <c r="AZ159">
-        <v>0</v>
-      </c>
-      <c r="BA159">
-        <v>0</v>
-      </c>
-      <c r="BB159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="J160">
-        <v>1</v>
-      </c>
-      <c r="K160">
-        <v>1</v>
-      </c>
-      <c r="L160">
-        <v>1</v>
-      </c>
-      <c r="M160">
-        <v>1</v>
-      </c>
-      <c r="N160">
-        <v>1</v>
-      </c>
-      <c r="O160">
-        <v>1</v>
-      </c>
-      <c r="P160">
-        <v>1</v>
-      </c>
-      <c r="Q160">
-        <v>1</v>
-      </c>
-      <c r="R160">
-        <v>1</v>
-      </c>
-      <c r="S160">
-        <v>1</v>
-      </c>
-      <c r="T160">
-        <v>1</v>
-      </c>
-      <c r="U160">
-        <v>1</v>
-      </c>
-      <c r="V160">
-        <v>1</v>
-      </c>
-      <c r="W160">
-        <v>1</v>
-      </c>
-      <c r="X160">
-        <v>1</v>
-      </c>
-      <c r="Y160">
-        <v>1</v>
-      </c>
-      <c r="Z160">
-        <v>1</v>
-      </c>
-      <c r="AA160">
-        <v>1</v>
-      </c>
-      <c r="AB160">
-        <v>1</v>
-      </c>
-      <c r="AC160">
-        <v>1</v>
-      </c>
-      <c r="AD160">
-        <v>1</v>
-      </c>
-      <c r="AE160">
-        <v>1</v>
-      </c>
-      <c r="AF160">
-        <v>1</v>
-      </c>
-      <c r="AG160">
-        <v>1</v>
-      </c>
-      <c r="AH160">
-        <v>1</v>
-      </c>
-      <c r="AI160">
-        <v>1</v>
-      </c>
-      <c r="AJ160">
-        <v>1</v>
-      </c>
-      <c r="AK160">
-        <v>1</v>
-      </c>
-      <c r="AL160">
-        <v>1</v>
-      </c>
-      <c r="AM160">
-        <v>1</v>
-      </c>
-      <c r="AN160">
-        <v>1</v>
-      </c>
-      <c r="AO160">
-        <v>1</v>
-      </c>
-      <c r="AP160">
-        <v>1</v>
-      </c>
-      <c r="AQ160">
-        <v>1</v>
-      </c>
-      <c r="AR160">
-        <v>1</v>
-      </c>
-      <c r="AS160">
-        <v>0</v>
-      </c>
-      <c r="AT160">
-        <v>0</v>
-      </c>
-      <c r="AU160">
-        <v>0</v>
-      </c>
-      <c r="AV160">
-        <v>0</v>
-      </c>
-      <c r="AW160">
-        <v>0</v>
-      </c>
-      <c r="AX160">
-        <v>0</v>
-      </c>
-      <c r="AY160">
-        <v>0</v>
-      </c>
-      <c r="AZ160">
-        <v>0</v>
-      </c>
-      <c r="BA160">
-        <v>0</v>
-      </c>
-      <c r="BB160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-      <c r="J161">
-        <v>1</v>
-      </c>
-      <c r="K161">
-        <v>1</v>
-      </c>
-      <c r="L161">
-        <v>1</v>
-      </c>
-      <c r="M161">
-        <v>0</v>
-      </c>
-      <c r="N161">
-        <v>0</v>
-      </c>
-      <c r="O161">
-        <v>0</v>
-      </c>
-      <c r="P161">
-        <v>0</v>
-      </c>
-      <c r="Q161">
-        <v>0</v>
-      </c>
-      <c r="R161">
-        <v>1</v>
-      </c>
-      <c r="S161">
-        <v>0</v>
-      </c>
-      <c r="T161">
-        <v>0</v>
-      </c>
-      <c r="U161">
-        <v>0</v>
-      </c>
-      <c r="V161">
-        <v>1</v>
-      </c>
-      <c r="W161">
-        <v>1</v>
-      </c>
-      <c r="X161">
-        <v>0</v>
-      </c>
-      <c r="Y161">
-        <v>1</v>
-      </c>
-      <c r="Z161">
-        <v>1</v>
-      </c>
-      <c r="AA161">
-        <v>1</v>
-      </c>
-      <c r="AB161">
-        <v>0</v>
-      </c>
-      <c r="AC161">
-        <v>1</v>
-      </c>
-      <c r="AD161">
-        <v>0</v>
-      </c>
-      <c r="AE161">
-        <v>0</v>
-      </c>
-      <c r="AF161">
-        <v>1</v>
-      </c>
-      <c r="AG161">
-        <v>1</v>
-      </c>
-      <c r="AH161">
-        <v>0</v>
-      </c>
-      <c r="AI161">
-        <v>0</v>
-      </c>
-      <c r="AJ161">
-        <v>0</v>
-      </c>
-      <c r="AK161">
-        <v>0</v>
-      </c>
-      <c r="AL161">
-        <v>1</v>
-      </c>
-      <c r="AM161">
-        <v>1</v>
-      </c>
-      <c r="AN161">
-        <v>0</v>
-      </c>
-      <c r="AO161">
-        <v>0</v>
-      </c>
-      <c r="AP161">
-        <v>1</v>
-      </c>
-      <c r="AQ161">
-        <v>0</v>
-      </c>
-      <c r="AR161">
-        <v>0</v>
-      </c>
-      <c r="AS161">
-        <v>0</v>
-      </c>
-      <c r="AT161">
-        <v>0</v>
-      </c>
-      <c r="AU161">
-        <v>0</v>
-      </c>
-      <c r="AV161">
-        <v>0</v>
-      </c>
-      <c r="AW161">
-        <v>0</v>
-      </c>
-      <c r="AX161">
-        <v>0</v>
-      </c>
-      <c r="AY161">
-        <v>0</v>
-      </c>
-      <c r="AZ161">
-        <v>0</v>
-      </c>
-      <c r="BA161">
-        <v>0</v>
-      </c>
-      <c r="BB161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>1</v>
-      </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
-      <c r="J162">
-        <v>1</v>
-      </c>
-      <c r="K162">
-        <v>1</v>
-      </c>
-      <c r="L162">
-        <v>1</v>
-      </c>
-      <c r="M162">
-        <v>0</v>
-      </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-      <c r="O162">
-        <v>0</v>
-      </c>
-      <c r="P162">
-        <v>0</v>
-      </c>
-      <c r="Q162">
-        <v>0</v>
-      </c>
-      <c r="R162">
-        <v>1</v>
-      </c>
-      <c r="S162">
-        <v>0</v>
-      </c>
-      <c r="T162">
-        <v>0</v>
-      </c>
-      <c r="U162">
-        <v>0</v>
-      </c>
-      <c r="V162">
-        <v>1</v>
-      </c>
-      <c r="W162">
-        <v>1</v>
-      </c>
-      <c r="X162">
-        <v>0</v>
-      </c>
-      <c r="Y162">
-        <v>1</v>
-      </c>
-      <c r="Z162">
-        <v>1</v>
-      </c>
-      <c r="AA162">
-        <v>1</v>
-      </c>
-      <c r="AB162">
-        <v>0</v>
-      </c>
-      <c r="AC162">
-        <v>1</v>
-      </c>
-      <c r="AD162">
-        <v>0</v>
-      </c>
-      <c r="AE162">
-        <v>0</v>
-      </c>
-      <c r="AF162">
-        <v>1</v>
-      </c>
-      <c r="AG162">
-        <v>1</v>
-      </c>
-      <c r="AH162">
-        <v>0</v>
-      </c>
-      <c r="AI162">
-        <v>0</v>
-      </c>
-      <c r="AJ162">
-        <v>0</v>
-      </c>
-      <c r="AK162">
-        <v>0</v>
-      </c>
-      <c r="AL162">
-        <v>1</v>
-      </c>
-      <c r="AM162">
-        <v>1</v>
-      </c>
-      <c r="AN162">
-        <v>0</v>
-      </c>
-      <c r="AO162">
-        <v>0</v>
-      </c>
-      <c r="AP162">
-        <v>1</v>
-      </c>
-      <c r="AQ162">
-        <v>0</v>
-      </c>
-      <c r="AR162">
-        <v>0</v>
-      </c>
-      <c r="AS162">
-        <v>0</v>
-      </c>
-      <c r="AT162">
-        <v>0</v>
-      </c>
-      <c r="AU162">
-        <v>0</v>
-      </c>
-      <c r="AV162">
-        <v>0</v>
-      </c>
-      <c r="AW162">
-        <v>0</v>
-      </c>
-      <c r="AX162">
-        <v>0</v>
-      </c>
-      <c r="AY162">
-        <v>0</v>
-      </c>
-      <c r="AZ162">
-        <v>0</v>
-      </c>
-      <c r="BA162">
-        <v>0</v>
-      </c>
-      <c r="BB162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>1</v>
-      </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-      <c r="J163">
-        <v>1</v>
-      </c>
-      <c r="K163">
-        <v>1</v>
-      </c>
-      <c r="L163">
-        <v>1</v>
-      </c>
-      <c r="M163">
-        <v>0</v>
-      </c>
-      <c r="N163">
-        <v>0</v>
-      </c>
-      <c r="O163">
-        <v>0</v>
-      </c>
-      <c r="P163">
-        <v>0</v>
-      </c>
-      <c r="Q163">
-        <v>0</v>
-      </c>
-      <c r="R163">
-        <v>1</v>
-      </c>
-      <c r="S163">
-        <v>0</v>
-      </c>
-      <c r="T163">
-        <v>0</v>
-      </c>
-      <c r="U163">
-        <v>0</v>
-      </c>
-      <c r="V163">
-        <v>1</v>
-      </c>
-      <c r="W163">
-        <v>1</v>
-      </c>
-      <c r="X163">
-        <v>0</v>
-      </c>
-      <c r="Y163">
-        <v>1</v>
-      </c>
-      <c r="Z163">
-        <v>1</v>
-      </c>
-      <c r="AA163">
-        <v>1</v>
-      </c>
-      <c r="AB163">
-        <v>0</v>
-      </c>
-      <c r="AC163">
-        <v>1</v>
-      </c>
-      <c r="AD163">
-        <v>0</v>
-      </c>
-      <c r="AE163">
-        <v>0</v>
-      </c>
-      <c r="AF163">
-        <v>1</v>
-      </c>
-      <c r="AG163">
-        <v>1</v>
-      </c>
-      <c r="AH163">
-        <v>0</v>
-      </c>
-      <c r="AI163">
-        <v>0</v>
-      </c>
-      <c r="AJ163">
-        <v>0</v>
-      </c>
-      <c r="AK163">
-        <v>0</v>
-      </c>
-      <c r="AL163">
-        <v>1</v>
-      </c>
-      <c r="AM163">
-        <v>1</v>
-      </c>
-      <c r="AN163">
-        <v>0</v>
-      </c>
-      <c r="AO163">
-        <v>0</v>
-      </c>
-      <c r="AP163">
-        <v>1</v>
-      </c>
-      <c r="AQ163">
-        <v>0</v>
-      </c>
-      <c r="AR163">
-        <v>0</v>
-      </c>
-      <c r="AS163">
-        <v>0</v>
-      </c>
-      <c r="AT163">
-        <v>0</v>
-      </c>
-      <c r="AU163">
-        <v>0</v>
-      </c>
-      <c r="AV163">
-        <v>0</v>
-      </c>
-      <c r="AW163">
-        <v>0</v>
-      </c>
-      <c r="AX163">
-        <v>0</v>
-      </c>
-      <c r="AY163">
-        <v>0</v>
-      </c>
-      <c r="AZ163">
-        <v>0</v>
-      </c>
-      <c r="BA163">
-        <v>0</v>
-      </c>
-      <c r="BB163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>1</v>
-      </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
-      <c r="J164">
-        <v>1</v>
-      </c>
-      <c r="K164">
-        <v>1</v>
-      </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-      <c r="M164">
-        <v>0</v>
-      </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-      <c r="O164">
-        <v>0</v>
-      </c>
-      <c r="P164">
-        <v>0</v>
-      </c>
-      <c r="Q164">
-        <v>0</v>
-      </c>
-      <c r="R164">
-        <v>1</v>
-      </c>
-      <c r="S164">
-        <v>0</v>
-      </c>
-      <c r="T164">
-        <v>0</v>
-      </c>
-      <c r="U164">
-        <v>0</v>
-      </c>
-      <c r="V164">
-        <v>1</v>
-      </c>
-      <c r="W164">
-        <v>1</v>
-      </c>
-      <c r="X164">
-        <v>0</v>
-      </c>
-      <c r="Y164">
-        <v>1</v>
-      </c>
-      <c r="Z164">
-        <v>1</v>
-      </c>
-      <c r="AA164">
-        <v>1</v>
-      </c>
-      <c r="AB164">
-        <v>0</v>
-      </c>
-      <c r="AC164">
-        <v>1</v>
-      </c>
-      <c r="AD164">
-        <v>0</v>
-      </c>
-      <c r="AE164">
-        <v>0</v>
-      </c>
-      <c r="AF164">
-        <v>1</v>
-      </c>
-      <c r="AG164">
-        <v>1</v>
-      </c>
-      <c r="AH164">
-        <v>0</v>
-      </c>
-      <c r="AI164">
-        <v>0</v>
-      </c>
-      <c r="AJ164">
-        <v>0</v>
-      </c>
-      <c r="AK164">
-        <v>0</v>
-      </c>
-      <c r="AL164">
-        <v>1</v>
-      </c>
-      <c r="AM164">
-        <v>1</v>
-      </c>
-      <c r="AN164">
-        <v>0</v>
-      </c>
-      <c r="AO164">
-        <v>0</v>
-      </c>
-      <c r="AP164">
-        <v>1</v>
-      </c>
-      <c r="AQ164">
-        <v>0</v>
-      </c>
-      <c r="AR164">
-        <v>0</v>
-      </c>
-      <c r="AS164">
-        <v>0</v>
-      </c>
-      <c r="AT164">
-        <v>0</v>
-      </c>
-      <c r="AU164">
-        <v>0</v>
-      </c>
-      <c r="AV164">
-        <v>0</v>
-      </c>
-      <c r="AW164">
-        <v>0</v>
-      </c>
-      <c r="AX164">
-        <v>0</v>
-      </c>
-      <c r="AY164">
-        <v>0</v>
-      </c>
-      <c r="AZ164">
-        <v>0</v>
-      </c>
-      <c r="BA164">
-        <v>0</v>
-      </c>
-      <c r="BB164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>1</v>
-      </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-      <c r="J165">
-        <v>1</v>
-      </c>
-      <c r="K165">
-        <v>1</v>
-      </c>
-      <c r="L165">
-        <v>1</v>
-      </c>
-      <c r="M165">
-        <v>0</v>
-      </c>
-      <c r="N165">
-        <v>0</v>
-      </c>
-      <c r="O165">
-        <v>0</v>
-      </c>
-      <c r="P165">
-        <v>0</v>
-      </c>
-      <c r="Q165">
-        <v>0</v>
-      </c>
-      <c r="R165">
-        <v>1</v>
-      </c>
-      <c r="S165">
-        <v>0</v>
-      </c>
-      <c r="T165">
-        <v>0</v>
-      </c>
-      <c r="U165">
-        <v>0</v>
-      </c>
-      <c r="V165">
-        <v>1</v>
-      </c>
-      <c r="W165">
-        <v>1</v>
-      </c>
-      <c r="X165">
-        <v>0</v>
-      </c>
-      <c r="Y165">
-        <v>1</v>
-      </c>
-      <c r="Z165">
-        <v>1</v>
-      </c>
-      <c r="AA165">
-        <v>1</v>
-      </c>
-      <c r="AB165">
-        <v>0</v>
-      </c>
-      <c r="AC165">
-        <v>1</v>
-      </c>
-      <c r="AD165">
-        <v>0</v>
-      </c>
-      <c r="AE165">
-        <v>0</v>
-      </c>
-      <c r="AF165">
-        <v>1</v>
-      </c>
-      <c r="AG165">
-        <v>1</v>
-      </c>
-      <c r="AH165">
-        <v>0</v>
-      </c>
-      <c r="AI165">
-        <v>0</v>
-      </c>
-      <c r="AJ165">
-        <v>0</v>
-      </c>
-      <c r="AK165">
-        <v>0</v>
-      </c>
-      <c r="AL165">
-        <v>1</v>
-      </c>
-      <c r="AM165">
-        <v>1</v>
-      </c>
-      <c r="AN165">
-        <v>0</v>
-      </c>
-      <c r="AO165">
-        <v>0</v>
-      </c>
-      <c r="AP165">
-        <v>1</v>
-      </c>
-      <c r="AQ165">
-        <v>0</v>
-      </c>
-      <c r="AR165">
-        <v>0</v>
-      </c>
-      <c r="AS165">
-        <v>0</v>
-      </c>
-      <c r="AT165">
-        <v>0</v>
-      </c>
-      <c r="AU165">
-        <v>0</v>
-      </c>
-      <c r="AV165">
-        <v>0</v>
-      </c>
-      <c r="AW165">
-        <v>0</v>
-      </c>
-      <c r="AX165">
-        <v>0</v>
-      </c>
-      <c r="AY165">
-        <v>0</v>
-      </c>
-      <c r="AZ165">
-        <v>0</v>
-      </c>
-      <c r="BA165">
-        <v>0</v>
-      </c>
-      <c r="BB165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-      <c r="M166">
-        <v>0</v>
-      </c>
-      <c r="N166">
-        <v>0</v>
-      </c>
-      <c r="O166">
-        <v>0</v>
-      </c>
-      <c r="P166">
-        <v>0</v>
-      </c>
-      <c r="Q166">
-        <v>0</v>
-      </c>
-      <c r="R166">
-        <v>0</v>
-      </c>
-      <c r="S166">
-        <v>0</v>
-      </c>
-      <c r="T166">
-        <v>0</v>
-      </c>
-      <c r="U166">
-        <v>0</v>
-      </c>
-      <c r="V166">
-        <v>0</v>
-      </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <v>0</v>
-      </c>
-      <c r="Y166">
-        <v>0</v>
-      </c>
-      <c r="Z166">
-        <v>0</v>
-      </c>
-      <c r="AA166">
-        <v>0</v>
-      </c>
-      <c r="AB166">
-        <v>0</v>
-      </c>
-      <c r="AC166">
-        <v>0</v>
-      </c>
-      <c r="AD166">
-        <v>0</v>
-      </c>
-      <c r="AE166">
-        <v>0</v>
-      </c>
-      <c r="AF166">
-        <v>0</v>
-      </c>
-      <c r="AG166">
-        <v>0</v>
-      </c>
-      <c r="AH166">
-        <v>0</v>
-      </c>
-      <c r="AI166">
-        <v>0</v>
-      </c>
-      <c r="AJ166">
-        <v>0</v>
-      </c>
-      <c r="AK166">
-        <v>0</v>
-      </c>
-      <c r="AL166">
-        <v>0</v>
-      </c>
-      <c r="AM166">
-        <v>0</v>
-      </c>
-      <c r="AN166">
-        <v>0</v>
-      </c>
-      <c r="AO166">
-        <v>1</v>
-      </c>
-      <c r="AP166">
-        <v>0</v>
-      </c>
-      <c r="AQ166">
-        <v>0</v>
-      </c>
-      <c r="AR166">
-        <v>0</v>
-      </c>
-      <c r="AS166">
-        <v>0</v>
-      </c>
-      <c r="AT166">
-        <v>0</v>
-      </c>
-      <c r="AU166">
-        <v>0</v>
-      </c>
-      <c r="AV166">
-        <v>0</v>
-      </c>
-      <c r="AW166">
-        <v>0</v>
-      </c>
-      <c r="AX166">
-        <v>0</v>
-      </c>
-      <c r="AY166">
-        <v>0</v>
-      </c>
-      <c r="AZ166">
-        <v>0</v>
-      </c>
-      <c r="BA166">
-        <v>0</v>
-      </c>
-      <c r="BB166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-      <c r="M167">
-        <v>0</v>
-      </c>
-      <c r="N167">
-        <v>0</v>
-      </c>
-      <c r="O167">
-        <v>0</v>
-      </c>
-      <c r="P167">
-        <v>0</v>
-      </c>
-      <c r="Q167">
-        <v>0</v>
-      </c>
-      <c r="R167">
-        <v>0</v>
-      </c>
-      <c r="S167">
-        <v>0</v>
-      </c>
-      <c r="T167">
-        <v>0</v>
-      </c>
-      <c r="U167">
-        <v>0</v>
-      </c>
-      <c r="V167">
-        <v>0</v>
-      </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-      <c r="X167">
-        <v>0</v>
-      </c>
-      <c r="Y167">
-        <v>0</v>
-      </c>
-      <c r="Z167">
-        <v>0</v>
-      </c>
-      <c r="AA167">
-        <v>0</v>
-      </c>
-      <c r="AB167">
-        <v>0</v>
-      </c>
-      <c r="AC167">
-        <v>0</v>
-      </c>
-      <c r="AD167">
-        <v>0</v>
-      </c>
-      <c r="AE167">
-        <v>0</v>
-      </c>
-      <c r="AF167">
-        <v>0</v>
-      </c>
-      <c r="AG167">
-        <v>0</v>
-      </c>
-      <c r="AH167">
-        <v>0</v>
-      </c>
-      <c r="AI167">
-        <v>0</v>
-      </c>
-      <c r="AJ167">
-        <v>0</v>
-      </c>
-      <c r="AK167">
-        <v>0</v>
-      </c>
-      <c r="AL167">
-        <v>0</v>
-      </c>
-      <c r="AM167">
-        <v>0</v>
-      </c>
-      <c r="AN167">
-        <v>0</v>
-      </c>
-      <c r="AO167">
-        <v>1</v>
-      </c>
-      <c r="AP167">
-        <v>0</v>
-      </c>
-      <c r="AQ167">
-        <v>0</v>
-      </c>
-      <c r="AR167">
-        <v>0</v>
-      </c>
-      <c r="AS167">
-        <v>0</v>
-      </c>
-      <c r="AT167">
-        <v>0</v>
-      </c>
-      <c r="AU167">
-        <v>0</v>
-      </c>
-      <c r="AV167">
-        <v>0</v>
-      </c>
-      <c r="AW167">
-        <v>0</v>
-      </c>
-      <c r="AX167">
-        <v>0</v>
-      </c>
-      <c r="AY167">
-        <v>0</v>
-      </c>
-      <c r="AZ167">
-        <v>0</v>
-      </c>
-      <c r="BA167">
-        <v>0</v>
-      </c>
-      <c r="BB167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-      <c r="M168">
-        <v>0</v>
-      </c>
-      <c r="N168">
-        <v>0</v>
-      </c>
-      <c r="O168">
-        <v>0</v>
-      </c>
-      <c r="P168">
-        <v>0</v>
-      </c>
-      <c r="Q168">
-        <v>0</v>
-      </c>
-      <c r="R168">
-        <v>0</v>
-      </c>
-      <c r="S168">
-        <v>0</v>
-      </c>
-      <c r="T168">
-        <v>0</v>
-      </c>
-      <c r="U168">
-        <v>0</v>
-      </c>
-      <c r="V168">
-        <v>0</v>
-      </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-      <c r="X168">
-        <v>0</v>
-      </c>
-      <c r="Y168">
-        <v>0</v>
-      </c>
-      <c r="Z168">
-        <v>0</v>
-      </c>
-      <c r="AA168">
-        <v>0</v>
-      </c>
-      <c r="AB168">
-        <v>0</v>
-      </c>
-      <c r="AC168">
-        <v>0</v>
-      </c>
-      <c r="AD168">
-        <v>0</v>
-      </c>
-      <c r="AE168">
-        <v>0</v>
-      </c>
-      <c r="AF168">
-        <v>0</v>
-      </c>
-      <c r="AG168">
-        <v>0</v>
-      </c>
-      <c r="AH168">
-        <v>0</v>
-      </c>
-      <c r="AI168">
-        <v>0</v>
-      </c>
-      <c r="AJ168">
-        <v>0</v>
-      </c>
-      <c r="AK168">
-        <v>0</v>
-      </c>
-      <c r="AL168">
-        <v>0</v>
-      </c>
-      <c r="AM168">
-        <v>0</v>
-      </c>
-      <c r="AN168">
-        <v>0</v>
-      </c>
-      <c r="AO168">
-        <v>1</v>
-      </c>
-      <c r="AP168">
-        <v>0</v>
-      </c>
-      <c r="AQ168">
-        <v>0</v>
-      </c>
-      <c r="AR168">
-        <v>0</v>
-      </c>
-      <c r="AS168">
-        <v>0</v>
-      </c>
-      <c r="AT168">
-        <v>0</v>
-      </c>
-      <c r="AU168">
-        <v>0</v>
-      </c>
-      <c r="AV168">
-        <v>0</v>
-      </c>
-      <c r="AW168">
-        <v>0</v>
-      </c>
-      <c r="AX168">
-        <v>0</v>
-      </c>
-      <c r="AY168">
-        <v>0</v>
-      </c>
-      <c r="AZ168">
-        <v>0</v>
-      </c>
-      <c r="BA168">
-        <v>0</v>
-      </c>
-      <c r="BB168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="M169">
-        <v>0</v>
-      </c>
-      <c r="N169">
-        <v>0</v>
-      </c>
-      <c r="O169">
-        <v>0</v>
-      </c>
-      <c r="P169">
-        <v>0</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>0</v>
-      </c>
-      <c r="S169">
-        <v>0</v>
-      </c>
-      <c r="T169">
-        <v>0</v>
-      </c>
-      <c r="U169">
-        <v>0</v>
-      </c>
-      <c r="V169">
-        <v>0</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-      <c r="Y169">
-        <v>0</v>
-      </c>
-      <c r="Z169">
-        <v>0</v>
-      </c>
-      <c r="AA169">
-        <v>0</v>
-      </c>
-      <c r="AB169">
-        <v>0</v>
-      </c>
-      <c r="AC169">
-        <v>0</v>
-      </c>
-      <c r="AD169">
-        <v>0</v>
-      </c>
-      <c r="AE169">
-        <v>0</v>
-      </c>
-      <c r="AF169">
-        <v>0</v>
-      </c>
-      <c r="AG169">
-        <v>0</v>
-      </c>
-      <c r="AH169">
-        <v>0</v>
-      </c>
-      <c r="AI169">
-        <v>0</v>
-      </c>
-      <c r="AJ169">
-        <v>0</v>
-      </c>
-      <c r="AK169">
-        <v>0</v>
-      </c>
-      <c r="AL169">
-        <v>0</v>
-      </c>
-      <c r="AM169">
-        <v>0</v>
-      </c>
-      <c r="AN169">
-        <v>0</v>
-      </c>
-      <c r="AO169">
-        <v>1</v>
-      </c>
-      <c r="AP169">
-        <v>0</v>
-      </c>
-      <c r="AQ169">
-        <v>0</v>
-      </c>
-      <c r="AR169">
-        <v>0</v>
-      </c>
-      <c r="AS169">
-        <v>0</v>
-      </c>
-      <c r="AT169">
-        <v>0</v>
-      </c>
-      <c r="AU169">
-        <v>0</v>
-      </c>
-      <c r="AV169">
-        <v>0</v>
-      </c>
-      <c r="AW169">
-        <v>0</v>
-      </c>
-      <c r="AX169">
-        <v>0</v>
-      </c>
-      <c r="AY169">
-        <v>0</v>
-      </c>
-      <c r="AZ169">
-        <v>0</v>
-      </c>
-      <c r="BA169">
-        <v>0</v>
-      </c>
-      <c r="BB169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-      <c r="M170">
-        <v>0</v>
-      </c>
-      <c r="N170">
-        <v>0</v>
-      </c>
-      <c r="O170">
-        <v>0</v>
-      </c>
-      <c r="P170">
-        <v>0</v>
-      </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>0</v>
-      </c>
-      <c r="S170">
-        <v>0</v>
-      </c>
-      <c r="T170">
-        <v>0</v>
-      </c>
-      <c r="U170">
-        <v>0</v>
-      </c>
-      <c r="V170">
-        <v>0</v>
-      </c>
-      <c r="W170">
-        <v>0</v>
-      </c>
-      <c r="X170">
-        <v>0</v>
-      </c>
-      <c r="Y170">
-        <v>0</v>
-      </c>
-      <c r="Z170">
-        <v>0</v>
-      </c>
-      <c r="AA170">
-        <v>0</v>
-      </c>
-      <c r="AB170">
-        <v>0</v>
-      </c>
-      <c r="AC170">
-        <v>0</v>
-      </c>
-      <c r="AD170">
-        <v>0</v>
-      </c>
-      <c r="AE170">
-        <v>0</v>
-      </c>
-      <c r="AF170">
-        <v>0</v>
-      </c>
-      <c r="AG170">
-        <v>0</v>
-      </c>
-      <c r="AH170">
-        <v>0</v>
-      </c>
-      <c r="AI170">
-        <v>0</v>
-      </c>
-      <c r="AJ170">
-        <v>0</v>
-      </c>
-      <c r="AK170">
-        <v>0</v>
-      </c>
-      <c r="AL170">
-        <v>0</v>
-      </c>
-      <c r="AM170">
-        <v>0</v>
-      </c>
-      <c r="AN170">
-        <v>0</v>
-      </c>
-      <c r="AO170">
-        <v>1</v>
-      </c>
-      <c r="AP170">
-        <v>0</v>
-      </c>
-      <c r="AQ170">
-        <v>0</v>
-      </c>
-      <c r="AR170">
-        <v>0</v>
-      </c>
-      <c r="AS170">
-        <v>0</v>
-      </c>
-      <c r="AT170">
-        <v>0</v>
-      </c>
-      <c r="AU170">
-        <v>0</v>
-      </c>
-      <c r="AV170">
-        <v>0</v>
-      </c>
-      <c r="AW170">
-        <v>0</v>
-      </c>
-      <c r="AX170">
-        <v>0</v>
-      </c>
-      <c r="AY170">
-        <v>0</v>
-      </c>
-      <c r="AZ170">
-        <v>0</v>
-      </c>
-      <c r="BA170">
-        <v>0</v>
-      </c>
-      <c r="BB170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-      <c r="M171">
-        <v>0</v>
-      </c>
-      <c r="N171">
-        <v>0</v>
-      </c>
-      <c r="O171">
-        <v>0</v>
-      </c>
-      <c r="P171">
-        <v>0</v>
-      </c>
-      <c r="Q171">
-        <v>1</v>
-      </c>
-      <c r="R171">
-        <v>0</v>
-      </c>
-      <c r="S171">
-        <v>0</v>
-      </c>
-      <c r="T171">
-        <v>0</v>
-      </c>
-      <c r="U171">
-        <v>0</v>
-      </c>
-      <c r="V171">
-        <v>0</v>
-      </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <v>0</v>
-      </c>
-      <c r="Y171">
-        <v>0</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
-      <c r="AA171">
-        <v>0</v>
-      </c>
-      <c r="AB171">
-        <v>0</v>
-      </c>
-      <c r="AC171">
-        <v>0</v>
-      </c>
-      <c r="AD171">
-        <v>0</v>
-      </c>
-      <c r="AE171">
-        <v>0</v>
-      </c>
-      <c r="AF171">
-        <v>0</v>
-      </c>
-      <c r="AG171">
-        <v>0</v>
-      </c>
-      <c r="AH171">
-        <v>0</v>
-      </c>
-      <c r="AI171">
-        <v>0</v>
-      </c>
-      <c r="AJ171">
-        <v>0</v>
-      </c>
-      <c r="AK171">
-        <v>0</v>
-      </c>
-      <c r="AL171">
-        <v>0</v>
-      </c>
-      <c r="AM171">
-        <v>0</v>
-      </c>
-      <c r="AN171">
-        <v>0</v>
-      </c>
-      <c r="AO171">
-        <v>0</v>
-      </c>
-      <c r="AP171">
-        <v>0</v>
-      </c>
-      <c r="AQ171">
-        <v>0</v>
-      </c>
-      <c r="AR171">
-        <v>0</v>
-      </c>
-      <c r="AS171">
-        <v>0</v>
-      </c>
-      <c r="AT171">
-        <v>0</v>
-      </c>
-      <c r="AU171">
-        <v>0</v>
-      </c>
-      <c r="AV171">
-        <v>0</v>
-      </c>
-      <c r="AW171">
-        <v>0</v>
-      </c>
-      <c r="AX171">
-        <v>0</v>
-      </c>
-      <c r="AY171">
-        <v>0</v>
-      </c>
-      <c r="AZ171">
-        <v>0</v>
-      </c>
-      <c r="BA171">
-        <v>0</v>
-      </c>
-      <c r="BB171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>0</v>
-      </c>
-      <c r="I172">
-        <v>1</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-      <c r="M172">
-        <v>0</v>
-      </c>
-      <c r="N172">
-        <v>0</v>
-      </c>
-      <c r="O172">
-        <v>0</v>
-      </c>
-      <c r="P172">
-        <v>0</v>
-      </c>
-      <c r="Q172">
-        <v>1</v>
-      </c>
-      <c r="R172">
-        <v>0</v>
-      </c>
-      <c r="S172">
-        <v>0</v>
-      </c>
-      <c r="T172">
-        <v>0</v>
-      </c>
-      <c r="U172">
-        <v>0</v>
-      </c>
-      <c r="V172">
-        <v>0</v>
-      </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-      <c r="X172">
-        <v>0</v>
-      </c>
-      <c r="Y172">
-        <v>0</v>
-      </c>
-      <c r="Z172">
-        <v>0</v>
-      </c>
-      <c r="AA172">
-        <v>0</v>
-      </c>
-      <c r="AB172">
-        <v>0</v>
-      </c>
-      <c r="AC172">
-        <v>0</v>
-      </c>
-      <c r="AD172">
-        <v>0</v>
-      </c>
-      <c r="AE172">
-        <v>0</v>
-      </c>
-      <c r="AF172">
-        <v>0</v>
-      </c>
-      <c r="AG172">
-        <v>0</v>
-      </c>
-      <c r="AH172">
-        <v>0</v>
-      </c>
-      <c r="AI172">
-        <v>0</v>
-      </c>
-      <c r="AJ172">
-        <v>0</v>
-      </c>
-      <c r="AK172">
-        <v>0</v>
-      </c>
-      <c r="AL172">
-        <v>0</v>
-      </c>
-      <c r="AM172">
-        <v>0</v>
-      </c>
-      <c r="AN172">
-        <v>0</v>
-      </c>
-      <c r="AO172">
-        <v>0</v>
-      </c>
-      <c r="AP172">
-        <v>0</v>
-      </c>
-      <c r="AQ172">
-        <v>0</v>
-      </c>
-      <c r="AR172">
-        <v>0</v>
-      </c>
-      <c r="AS172">
-        <v>0</v>
-      </c>
-      <c r="AT172">
-        <v>0</v>
-      </c>
-      <c r="AU172">
-        <v>0</v>
-      </c>
-      <c r="AV172">
-        <v>0</v>
-      </c>
-      <c r="AW172">
-        <v>0</v>
-      </c>
-      <c r="AX172">
-        <v>0</v>
-      </c>
-      <c r="AY172">
-        <v>0</v>
-      </c>
-      <c r="AZ172">
-        <v>0</v>
-      </c>
-      <c r="BA172">
-        <v>0</v>
-      </c>
-      <c r="BB172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>0</v>
-      </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>0</v>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-      <c r="M173">
-        <v>0</v>
-      </c>
-      <c r="N173">
-        <v>0</v>
-      </c>
-      <c r="O173">
-        <v>0</v>
-      </c>
-      <c r="P173">
-        <v>0</v>
-      </c>
-      <c r="Q173">
-        <v>1</v>
-      </c>
-      <c r="R173">
-        <v>0</v>
-      </c>
-      <c r="S173">
-        <v>0</v>
-      </c>
-      <c r="T173">
-        <v>0</v>
-      </c>
-      <c r="U173">
-        <v>0</v>
-      </c>
-      <c r="V173">
-        <v>0</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
-        <v>0</v>
-      </c>
-      <c r="Y173">
-        <v>0</v>
-      </c>
-      <c r="Z173">
-        <v>0</v>
-      </c>
-      <c r="AA173">
-        <v>0</v>
-      </c>
-      <c r="AB173">
-        <v>0</v>
-      </c>
-      <c r="AC173">
-        <v>0</v>
-      </c>
-      <c r="AD173">
-        <v>0</v>
-      </c>
-      <c r="AE173">
-        <v>0</v>
-      </c>
-      <c r="AF173">
-        <v>0</v>
-      </c>
-      <c r="AG173">
-        <v>0</v>
-      </c>
-      <c r="AH173">
-        <v>0</v>
-      </c>
-      <c r="AI173">
-        <v>0</v>
-      </c>
-      <c r="AJ173">
-        <v>0</v>
-      </c>
-      <c r="AK173">
-        <v>0</v>
-      </c>
-      <c r="AL173">
-        <v>0</v>
-      </c>
-      <c r="AM173">
-        <v>0</v>
-      </c>
-      <c r="AN173">
-        <v>0</v>
-      </c>
-      <c r="AO173">
-        <v>0</v>
-      </c>
-      <c r="AP173">
-        <v>0</v>
-      </c>
-      <c r="AQ173">
-        <v>0</v>
-      </c>
-      <c r="AR173">
-        <v>0</v>
-      </c>
-      <c r="AS173">
-        <v>0</v>
-      </c>
-      <c r="AT173">
-        <v>0</v>
-      </c>
-      <c r="AU173">
-        <v>0</v>
-      </c>
-      <c r="AV173">
-        <v>0</v>
-      </c>
-      <c r="AW173">
-        <v>0</v>
-      </c>
-      <c r="AX173">
-        <v>0</v>
-      </c>
-      <c r="AY173">
-        <v>0</v>
-      </c>
-      <c r="AZ173">
-        <v>0</v>
-      </c>
-      <c r="BA173">
-        <v>0</v>
-      </c>
-      <c r="BB173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>0</v>
-      </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-      <c r="M174">
-        <v>0</v>
-      </c>
-      <c r="N174">
-        <v>0</v>
-      </c>
-      <c r="O174">
-        <v>0</v>
-      </c>
-      <c r="P174">
-        <v>0</v>
-      </c>
-      <c r="Q174">
-        <v>1</v>
-      </c>
-      <c r="R174">
-        <v>0</v>
-      </c>
-      <c r="S174">
-        <v>0</v>
-      </c>
-      <c r="T174">
-        <v>0</v>
-      </c>
-      <c r="U174">
-        <v>0</v>
-      </c>
-      <c r="V174">
-        <v>0</v>
-      </c>
-      <c r="W174">
-        <v>0</v>
-      </c>
-      <c r="X174">
-        <v>0</v>
-      </c>
-      <c r="Y174">
-        <v>0</v>
-      </c>
-      <c r="Z174">
-        <v>0</v>
-      </c>
-      <c r="AA174">
-        <v>0</v>
-      </c>
-      <c r="AB174">
-        <v>0</v>
-      </c>
-      <c r="AC174">
-        <v>0</v>
-      </c>
-      <c r="AD174">
-        <v>0</v>
-      </c>
-      <c r="AE174">
-        <v>0</v>
-      </c>
-      <c r="AF174">
-        <v>0</v>
-      </c>
-      <c r="AG174">
-        <v>0</v>
-      </c>
-      <c r="AH174">
-        <v>0</v>
-      </c>
-      <c r="AI174">
-        <v>0</v>
-      </c>
-      <c r="AJ174">
-        <v>0</v>
-      </c>
-      <c r="AK174">
-        <v>0</v>
-      </c>
-      <c r="AL174">
-        <v>0</v>
-      </c>
-      <c r="AM174">
-        <v>0</v>
-      </c>
-      <c r="AN174">
-        <v>0</v>
-      </c>
-      <c r="AO174">
-        <v>0</v>
-      </c>
-      <c r="AP174">
-        <v>0</v>
-      </c>
-      <c r="AQ174">
-        <v>0</v>
-      </c>
-      <c r="AR174">
-        <v>0</v>
-      </c>
-      <c r="AS174">
-        <v>0</v>
-      </c>
-      <c r="AT174">
-        <v>0</v>
-      </c>
-      <c r="AU174">
-        <v>0</v>
-      </c>
-      <c r="AV174">
-        <v>0</v>
-      </c>
-      <c r="AW174">
-        <v>0</v>
-      </c>
-      <c r="AX174">
-        <v>0</v>
-      </c>
-      <c r="AY174">
-        <v>0</v>
-      </c>
-      <c r="AZ174">
-        <v>0</v>
-      </c>
-      <c r="BA174">
-        <v>0</v>
-      </c>
-      <c r="BB174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>0</v>
-      </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-      <c r="M175">
-        <v>0</v>
-      </c>
-      <c r="N175">
-        <v>0</v>
-      </c>
-      <c r="O175">
-        <v>0</v>
-      </c>
-      <c r="P175">
-        <v>0</v>
-      </c>
-      <c r="Q175">
-        <v>1</v>
-      </c>
-      <c r="R175">
-        <v>0</v>
-      </c>
-      <c r="S175">
-        <v>0</v>
-      </c>
-      <c r="T175">
-        <v>0</v>
-      </c>
-      <c r="U175">
-        <v>0</v>
-      </c>
-      <c r="V175">
-        <v>0</v>
-      </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-      <c r="X175">
-        <v>0</v>
-      </c>
-      <c r="Y175">
-        <v>0</v>
-      </c>
-      <c r="Z175">
-        <v>0</v>
-      </c>
-      <c r="AA175">
-        <v>0</v>
-      </c>
-      <c r="AB175">
-        <v>0</v>
-      </c>
-      <c r="AC175">
-        <v>0</v>
-      </c>
-      <c r="AD175">
-        <v>0</v>
-      </c>
-      <c r="AE175">
-        <v>0</v>
-      </c>
-      <c r="AF175">
-        <v>0</v>
-      </c>
-      <c r="AG175">
-        <v>0</v>
-      </c>
-      <c r="AH175">
-        <v>0</v>
-      </c>
-      <c r="AI175">
-        <v>0</v>
-      </c>
-      <c r="AJ175">
-        <v>0</v>
-      </c>
-      <c r="AK175">
-        <v>0</v>
-      </c>
-      <c r="AL175">
-        <v>0</v>
-      </c>
-      <c r="AM175">
-        <v>0</v>
-      </c>
-      <c r="AN175">
-        <v>0</v>
-      </c>
-      <c r="AO175">
-        <v>0</v>
-      </c>
-      <c r="AP175">
-        <v>0</v>
-      </c>
-      <c r="AQ175">
-        <v>0</v>
-      </c>
-      <c r="AR175">
-        <v>0</v>
-      </c>
-      <c r="AS175">
-        <v>0</v>
-      </c>
-      <c r="AT175">
-        <v>0</v>
-      </c>
-      <c r="AU175">
-        <v>0</v>
-      </c>
-      <c r="AV175">
-        <v>0</v>
-      </c>
-      <c r="AW175">
-        <v>0</v>
-      </c>
-      <c r="AX175">
-        <v>0</v>
-      </c>
-      <c r="AY175">
-        <v>0</v>
-      </c>
-      <c r="AZ175">
-        <v>0</v>
-      </c>
-      <c r="BA175">
-        <v>0</v>
-      </c>
-      <c r="BB175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <v>0</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176">
-        <v>0</v>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-      <c r="M176">
-        <v>0</v>
-      </c>
-      <c r="N176">
-        <v>0</v>
-      </c>
-      <c r="O176">
-        <v>0</v>
-      </c>
-      <c r="P176">
-        <v>0</v>
-      </c>
-      <c r="Q176">
-        <v>0</v>
-      </c>
-      <c r="R176">
-        <v>0</v>
-      </c>
-      <c r="S176">
-        <v>0</v>
-      </c>
-      <c r="T176">
-        <v>0</v>
-      </c>
-      <c r="U176">
-        <v>0</v>
-      </c>
-      <c r="V176">
-        <v>0</v>
-      </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-      <c r="X176">
-        <v>0</v>
-      </c>
-      <c r="Y176">
-        <v>0</v>
-      </c>
-      <c r="Z176">
-        <v>0</v>
-      </c>
-      <c r="AA176">
-        <v>0</v>
-      </c>
-      <c r="AB176">
-        <v>0</v>
-      </c>
-      <c r="AC176">
-        <v>0</v>
-      </c>
-      <c r="AD176">
-        <v>0</v>
-      </c>
-      <c r="AE176">
-        <v>0</v>
-      </c>
-      <c r="AF176">
-        <v>0</v>
-      </c>
-      <c r="AG176">
-        <v>0</v>
-      </c>
-      <c r="AH176">
-        <v>0</v>
-      </c>
-      <c r="AI176">
-        <v>1</v>
-      </c>
-      <c r="AJ176">
-        <v>0</v>
-      </c>
-      <c r="AK176">
-        <v>0</v>
-      </c>
-      <c r="AL176">
-        <v>0</v>
-      </c>
-      <c r="AM176">
-        <v>0</v>
-      </c>
-      <c r="AN176">
-        <v>0</v>
-      </c>
-      <c r="AO176">
-        <v>0</v>
-      </c>
-      <c r="AP176">
-        <v>0</v>
-      </c>
-      <c r="AQ176">
-        <v>0</v>
-      </c>
-      <c r="AR176">
-        <v>0</v>
-      </c>
-      <c r="AS176">
-        <v>0</v>
-      </c>
-      <c r="AT176">
-        <v>0</v>
-      </c>
-      <c r="AU176">
-        <v>0</v>
-      </c>
-      <c r="AV176">
-        <v>0</v>
-      </c>
-      <c r="AW176">
-        <v>0</v>
-      </c>
-      <c r="AX176">
-        <v>0</v>
-      </c>
-      <c r="AY176">
-        <v>0</v>
-      </c>
-      <c r="AZ176">
-        <v>0</v>
-      </c>
-      <c r="BA176">
-        <v>0</v>
-      </c>
-      <c r="BB176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-      <c r="M177">
-        <v>0</v>
-      </c>
-      <c r="N177">
-        <v>0</v>
-      </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-      <c r="P177">
-        <v>0</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>0</v>
-      </c>
-      <c r="S177">
-        <v>0</v>
-      </c>
-      <c r="T177">
-        <v>0</v>
-      </c>
-      <c r="U177">
-        <v>0</v>
-      </c>
-      <c r="V177">
-        <v>0</v>
-      </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-      <c r="X177">
-        <v>0</v>
-      </c>
-      <c r="Y177">
-        <v>0</v>
-      </c>
-      <c r="Z177">
-        <v>0</v>
-      </c>
-      <c r="AA177">
-        <v>0</v>
-      </c>
-      <c r="AB177">
-        <v>0</v>
-      </c>
-      <c r="AC177">
-        <v>0</v>
-      </c>
-      <c r="AD177">
-        <v>0</v>
-      </c>
-      <c r="AE177">
-        <v>0</v>
-      </c>
-      <c r="AF177">
-        <v>0</v>
-      </c>
-      <c r="AG177">
-        <v>0</v>
-      </c>
-      <c r="AH177">
-        <v>0</v>
-      </c>
-      <c r="AI177">
-        <v>1</v>
-      </c>
-      <c r="AJ177">
-        <v>0</v>
-      </c>
-      <c r="AK177">
-        <v>0</v>
-      </c>
-      <c r="AL177">
-        <v>0</v>
-      </c>
-      <c r="AM177">
-        <v>0</v>
-      </c>
-      <c r="AN177">
-        <v>0</v>
-      </c>
-      <c r="AO177">
-        <v>0</v>
-      </c>
-      <c r="AP177">
-        <v>0</v>
-      </c>
-      <c r="AQ177">
-        <v>0</v>
-      </c>
-      <c r="AR177">
-        <v>0</v>
-      </c>
-      <c r="AS177">
-        <v>0</v>
-      </c>
-      <c r="AT177">
-        <v>0</v>
-      </c>
-      <c r="AU177">
-        <v>0</v>
-      </c>
-      <c r="AV177">
-        <v>0</v>
-      </c>
-      <c r="AW177">
-        <v>0</v>
-      </c>
-      <c r="AX177">
-        <v>0</v>
-      </c>
-      <c r="AY177">
-        <v>0</v>
-      </c>
-      <c r="AZ177">
-        <v>0</v>
-      </c>
-      <c r="BA177">
-        <v>0</v>
-      </c>
-      <c r="BB177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-      <c r="M178">
-        <v>0</v>
-      </c>
-      <c r="N178">
-        <v>0</v>
-      </c>
-      <c r="O178">
-        <v>0</v>
-      </c>
-      <c r="P178">
-        <v>0</v>
-      </c>
-      <c r="Q178">
-        <v>0</v>
-      </c>
-      <c r="R178">
-        <v>0</v>
-      </c>
-      <c r="S178">
-        <v>0</v>
-      </c>
-      <c r="T178">
-        <v>0</v>
-      </c>
-      <c r="U178">
-        <v>0</v>
-      </c>
-      <c r="V178">
-        <v>0</v>
-      </c>
-      <c r="W178">
-        <v>0</v>
-      </c>
-      <c r="X178">
-        <v>0</v>
-      </c>
-      <c r="Y178">
-        <v>0</v>
-      </c>
-      <c r="Z178">
-        <v>0</v>
-      </c>
-      <c r="AA178">
-        <v>0</v>
-      </c>
-      <c r="AB178">
-        <v>0</v>
-      </c>
-      <c r="AC178">
-        <v>0</v>
-      </c>
-      <c r="AD178">
-        <v>0</v>
-      </c>
-      <c r="AE178">
-        <v>0</v>
-      </c>
-      <c r="AF178">
-        <v>0</v>
-      </c>
-      <c r="AG178">
-        <v>0</v>
-      </c>
-      <c r="AH178">
-        <v>0</v>
-      </c>
-      <c r="AI178">
-        <v>1</v>
-      </c>
-      <c r="AJ178">
-        <v>0</v>
-      </c>
-      <c r="AK178">
-        <v>0</v>
-      </c>
-      <c r="AL178">
-        <v>0</v>
-      </c>
-      <c r="AM178">
-        <v>0</v>
-      </c>
-      <c r="AN178">
-        <v>0</v>
-      </c>
-      <c r="AO178">
-        <v>0</v>
-      </c>
-      <c r="AP178">
-        <v>0</v>
-      </c>
-      <c r="AQ178">
-        <v>0</v>
-      </c>
-      <c r="AR178">
-        <v>0</v>
-      </c>
-      <c r="AS178">
-        <v>0</v>
-      </c>
-      <c r="AT178">
-        <v>0</v>
-      </c>
-      <c r="AU178">
-        <v>0</v>
-      </c>
-      <c r="AV178">
-        <v>0</v>
-      </c>
-      <c r="AW178">
-        <v>0</v>
-      </c>
-      <c r="AX178">
-        <v>0</v>
-      </c>
-      <c r="AY178">
-        <v>0</v>
-      </c>
-      <c r="AZ178">
-        <v>0</v>
-      </c>
-      <c r="BA178">
-        <v>0</v>
-      </c>
-      <c r="BB178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-      <c r="M179">
-        <v>0</v>
-      </c>
-      <c r="N179">
-        <v>0</v>
-      </c>
-      <c r="O179">
-        <v>0</v>
-      </c>
-      <c r="P179">
-        <v>0</v>
-      </c>
-      <c r="Q179">
-        <v>0</v>
-      </c>
-      <c r="R179">
-        <v>0</v>
-      </c>
-      <c r="S179">
-        <v>0</v>
-      </c>
-      <c r="T179">
-        <v>0</v>
-      </c>
-      <c r="U179">
-        <v>0</v>
-      </c>
-      <c r="V179">
-        <v>0</v>
-      </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-      <c r="X179">
-        <v>0</v>
-      </c>
-      <c r="Y179">
-        <v>0</v>
-      </c>
-      <c r="Z179">
-        <v>0</v>
-      </c>
-      <c r="AA179">
-        <v>0</v>
-      </c>
-      <c r="AB179">
-        <v>0</v>
-      </c>
-      <c r="AC179">
-        <v>0</v>
-      </c>
-      <c r="AD179">
-        <v>0</v>
-      </c>
-      <c r="AE179">
-        <v>0</v>
-      </c>
-      <c r="AF179">
-        <v>0</v>
-      </c>
-      <c r="AG179">
-        <v>0</v>
-      </c>
-      <c r="AH179">
-        <v>0</v>
-      </c>
-      <c r="AI179">
-        <v>1</v>
-      </c>
-      <c r="AJ179">
-        <v>0</v>
-      </c>
-      <c r="AK179">
-        <v>0</v>
-      </c>
-      <c r="AL179">
-        <v>0</v>
-      </c>
-      <c r="AM179">
-        <v>0</v>
-      </c>
-      <c r="AN179">
-        <v>0</v>
-      </c>
-      <c r="AO179">
-        <v>0</v>
-      </c>
-      <c r="AP179">
-        <v>0</v>
-      </c>
-      <c r="AQ179">
-        <v>0</v>
-      </c>
-      <c r="AR179">
-        <v>0</v>
-      </c>
-      <c r="AS179">
-        <v>0</v>
-      </c>
-      <c r="AT179">
-        <v>0</v>
-      </c>
-      <c r="AU179">
-        <v>0</v>
-      </c>
-      <c r="AV179">
-        <v>0</v>
-      </c>
-      <c r="AW179">
-        <v>0</v>
-      </c>
-      <c r="AX179">
-        <v>0</v>
-      </c>
-      <c r="AY179">
-        <v>0</v>
-      </c>
-      <c r="AZ179">
-        <v>0</v>
-      </c>
-      <c r="BA179">
-        <v>0</v>
-      </c>
-      <c r="BB179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-      <c r="M180">
-        <v>0</v>
-      </c>
-      <c r="N180">
-        <v>0</v>
-      </c>
-      <c r="O180">
-        <v>0</v>
-      </c>
-      <c r="P180">
-        <v>0</v>
-      </c>
-      <c r="Q180">
-        <v>0</v>
-      </c>
-      <c r="R180">
-        <v>0</v>
-      </c>
-      <c r="S180">
-        <v>0</v>
-      </c>
-      <c r="T180">
-        <v>0</v>
-      </c>
-      <c r="U180">
-        <v>0</v>
-      </c>
-      <c r="V180">
-        <v>0</v>
-      </c>
-      <c r="W180">
-        <v>0</v>
-      </c>
-      <c r="X180">
-        <v>0</v>
-      </c>
-      <c r="Y180">
-        <v>0</v>
-      </c>
-      <c r="Z180">
-        <v>0</v>
-      </c>
-      <c r="AA180">
-        <v>0</v>
-      </c>
-      <c r="AB180">
-        <v>0</v>
-      </c>
-      <c r="AC180">
-        <v>0</v>
-      </c>
-      <c r="AD180">
-        <v>0</v>
-      </c>
-      <c r="AE180">
-        <v>0</v>
-      </c>
-      <c r="AF180">
-        <v>0</v>
-      </c>
-      <c r="AG180">
-        <v>0</v>
-      </c>
-      <c r="AH180">
-        <v>0</v>
-      </c>
-      <c r="AI180">
-        <v>1</v>
-      </c>
-      <c r="AJ180">
-        <v>0</v>
-      </c>
-      <c r="AK180">
-        <v>0</v>
-      </c>
-      <c r="AL180">
-        <v>0</v>
-      </c>
-      <c r="AM180">
-        <v>0</v>
-      </c>
-      <c r="AN180">
-        <v>0</v>
-      </c>
-      <c r="AO180">
-        <v>0</v>
-      </c>
-      <c r="AP180">
-        <v>0</v>
-      </c>
-      <c r="AQ180">
-        <v>0</v>
-      </c>
-      <c r="AR180">
-        <v>0</v>
-      </c>
-      <c r="AS180">
-        <v>0</v>
-      </c>
-      <c r="AT180">
-        <v>0</v>
-      </c>
-      <c r="AU180">
-        <v>0</v>
-      </c>
-      <c r="AV180">
-        <v>0</v>
-      </c>
-      <c r="AW180">
-        <v>0</v>
-      </c>
-      <c r="AX180">
-        <v>0</v>
-      </c>
-      <c r="AY180">
-        <v>0</v>
-      </c>
-      <c r="AZ180">
-        <v>0</v>
-      </c>
-      <c r="BA180">
-        <v>0</v>
-      </c>
-      <c r="BB180">
-        <v>0</v>
-      </c>
+      <c r="A138" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
